--- a/make-uniform/production/Dictionary.xlsx
+++ b/make-uniform/production/Dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="50">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -140,21 +140,6 @@
     <t>VEH_IN_HH_OTHER</t>
   </si>
   <si>
-    <t>'None'</t>
-  </si>
-  <si>
-    <t>'1'</t>
-  </si>
-  <si>
-    <t>'2'</t>
-  </si>
-  <si>
-    <t>'3'</t>
-  </si>
-  <si>
-    <t>'4 or more'</t>
-  </si>
-  <si>
     <t>four or more</t>
   </si>
   <si>
@@ -183,6 +168,12 @@
   </si>
   <si>
     <t>Operator</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>4 or more</t>
   </si>
 </sst>
 </file>
@@ -603,8 +594,8 @@
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -616,7 +607,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1645,7 +1636,7 @@
         <v>4</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>4</v>
@@ -1659,7 +1650,7 @@
         <v>30</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>31</v>
@@ -1675,8 +1666,8 @@
       <c r="B63" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>39</v>
+      <c r="C63" s="3">
+        <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>31</v>
@@ -1692,8 +1683,8 @@
       <c r="B64" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>40</v>
+      <c r="C64" s="3">
+        <v>2</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>31</v>
@@ -1709,8 +1700,8 @@
       <c r="B65" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>41</v>
+      <c r="C65" s="3">
+        <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>31</v>
@@ -1727,13 +1718,13 @@
         <v>30</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1741,13 +1732,13 @@
         <v>6</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>32</v>
@@ -1758,13 +1749,13 @@
         <v>6</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C68" s="1">
         <v>2</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>36</v>
@@ -1775,13 +1766,13 @@
         <v>6</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C69" s="1">
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>33</v>
@@ -1792,13 +1783,13 @@
         <v>6</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C70" s="1">
         <v>4</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>34</v>
@@ -1809,13 +1800,13 @@
         <v>6</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C71" s="1">
         <v>5</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>35</v>
@@ -1826,16 +1817,16 @@
         <v>6</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C72" s="1">
         <v>6</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1843,16 +1834,16 @@
         <v>6</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C73" s="1">
         <v>7</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1860,13 +1851,13 @@
         <v>6</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>4</v>
@@ -1877,13 +1868,13 @@
         <v>7</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>32</v>
@@ -1894,13 +1885,13 @@
         <v>7</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>36</v>
@@ -1911,13 +1902,13 @@
         <v>7</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C77" s="1">
         <v>2</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>33</v>
@@ -1928,13 +1919,13 @@
         <v>7</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C78" s="1">
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>34</v>
@@ -1945,13 +1936,13 @@
         <v>7</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C79" s="1">
         <v>4</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>35</v>
@@ -1962,16 +1953,16 @@
         <v>7</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C80" s="1">
         <v>5</v>
       </c>
       <c r="D80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -1979,16 +1970,16 @@
         <v>7</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C81" s="1">
         <v>6</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/make-uniform/production/Dictionary.xlsx
+++ b/make-uniform/production/Dictionary.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13545" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Working Dictionary" sheetId="3" r:id="rId1"/>
+    <sheet name="Dictionary" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="68">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -174,6 +174,60 @@
   </si>
   <si>
     <t>4 or more</t>
+  </si>
+  <si>
+    <t>AC Transit</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>nine</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>eleven</t>
+  </si>
+  <si>
+    <t>twelve</t>
+  </si>
+  <si>
+    <t>thirteen</t>
+  </si>
+  <si>
+    <t>fourteen</t>
+  </si>
+  <si>
+    <t>fifteen</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Q405</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q404</t>
+  </si>
+  <si>
+    <t>Q403</t>
+  </si>
+  <si>
+    <t>County Connection</t>
+  </si>
+  <si>
+    <t>Q227</t>
   </si>
 </sst>
 </file>
@@ -591,11 +645,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -658,16 +712,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -675,16 +729,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -695,67 +749,67 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
+        <v>61</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -766,13 +820,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -783,13 +837,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -800,13 +854,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -817,13 +871,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -834,13 +888,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -851,13 +905,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -868,13 +922,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -885,13 +939,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -902,7 +956,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>10</v>
@@ -913,70 +967,70 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -987,13 +1041,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1004,13 +1058,13 @@
         <v>21</v>
       </c>
       <c r="C24" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1021,13 +1075,13 @@
         <v>21</v>
       </c>
       <c r="C25" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1038,13 +1092,13 @@
         <v>21</v>
       </c>
       <c r="C26" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1055,13 +1109,13 @@
         <v>21</v>
       </c>
       <c r="C27" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1072,13 +1126,13 @@
         <v>21</v>
       </c>
       <c r="C28" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1089,13 +1143,13 @@
         <v>21</v>
       </c>
       <c r="C29" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1106,231 +1160,231 @@
         <v>21</v>
       </c>
       <c r="C30" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C32" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C33" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C34" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C35" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C36" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C37" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C38" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C39" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C40" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C41" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C42" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C43" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>17</v>
@@ -1338,206 +1392,206 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C44" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C45" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C46" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C47" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C48" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C49" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C50" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C51" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C52" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C53" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C54" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C55" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1545,16 +1599,16 @@
         <v>6</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C56" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1562,16 +1616,16 @@
         <v>6</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C57" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1579,16 +1633,16 @@
         <v>6</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C58" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1596,50 +1650,50 @@
         <v>6</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C59" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C60" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1647,16 +1701,16 @@
         <v>7</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1664,16 +1718,16 @@
         <v>7</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" s="3">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="C63" s="1">
+        <v>4</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1681,16 +1735,16 @@
         <v>7</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C64" s="3">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="C64" s="1">
+        <v>5</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1698,16 +1752,16 @@
         <v>7</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C65" s="3">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="C65" s="1">
+        <v>6</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1715,271 +1769,1308 @@
         <v>7</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="C66" s="1">
+        <v>7</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C67" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C68" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C69" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C70" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C71" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C72" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C73" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
+      </c>
+      <c r="C74" s="1">
+        <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C75" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C76" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C77" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C78" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C79" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C80" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" s="1">
+        <v>10</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="1">
+        <v>11</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" s="1">
+        <v>12</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" s="1">
+        <v>3</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" s="1">
+        <v>4</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" s="1">
+        <v>5</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C92" s="3">
+        <v>2</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93" s="3">
+        <v>3</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C95" s="3">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96" s="3">
+        <v>2</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C97" s="3">
+        <v>3</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C98" s="3">
+        <v>4</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C99" s="3">
+        <v>5</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C100" s="3">
+        <v>6</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C101" s="3">
+        <v>7</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C102" s="3">
+        <v>8</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C103" s="3">
+        <v>9</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C104" s="3">
+        <v>10</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C105" s="3">
+        <v>11</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C106" s="3">
+        <v>12</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C107" s="3">
+        <v>13</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C108" s="3">
+        <v>14</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C109" s="3">
+        <v>15</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C110" s="3">
+        <v>16</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C111" s="3">
+        <v>17</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C114" s="1">
+        <v>3</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C115" s="1">
+        <v>4</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C116" s="1">
+        <v>5</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C117" s="1">
+        <v>6</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C118" s="1">
+        <v>7</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C81" s="1">
-        <v>6</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="C120" s="1">
+        <v>0</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E120" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C122" s="1">
+        <v>2</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C123" s="1">
+        <v>3</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C124" s="1">
+        <v>4</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C125" s="1">
+        <v>5</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C126" s="1">
+        <v>6</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C128" s="1">
+        <v>2</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C129" s="1">
+        <v>3</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C130" s="1">
+        <v>4</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C131" s="1">
+        <v>5</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C132" s="1">
+        <v>6</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C133" s="1">
+        <v>7</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C134" s="1">
+        <v>8</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C135" s="1">
+        <v>9</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C136" s="1">
+        <v>10</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C137" s="1">
+        <v>11</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C138" s="1">
+        <v>12</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C139" s="1">
+        <v>13</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C140" s="1">
+        <v>14</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C141" s="1">
+        <v>15</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C142" s="1">
+        <v>16</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/make-uniform/production/Dictionary.xlsx
+++ b/make-uniform/production/Dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="74">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -228,6 +228,24 @@
   </si>
   <si>
     <t>Q227</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Golden Gate Transit</t>
+  </si>
+  <si>
+    <t>Q408</t>
+  </si>
+  <si>
+    <t>Q407</t>
+  </si>
+  <si>
+    <t>Q406</t>
   </si>
 </sst>
 </file>
@@ -645,11 +663,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:E260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -746,16 +764,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -763,16 +781,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -780,16 +798,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
@@ -797,10 +815,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -814,36 +832,36 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -854,13 +872,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -871,13 +889,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -888,13 +906,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -905,13 +923,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -922,13 +940,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -939,13 +957,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -956,13 +974,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -973,13 +991,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -990,13 +1008,13 @@
         <v>9</v>
       </c>
       <c r="C20" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1007,13 +1025,13 @@
         <v>9</v>
       </c>
       <c r="C21" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1024,47 +1042,47 @@
         <v>9</v>
       </c>
       <c r="C22" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1075,13 +1093,13 @@
         <v>21</v>
       </c>
       <c r="C25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1092,13 +1110,13 @@
         <v>21</v>
       </c>
       <c r="C26" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1109,13 +1127,13 @@
         <v>21</v>
       </c>
       <c r="C27" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1126,13 +1144,13 @@
         <v>21</v>
       </c>
       <c r="C28" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1143,13 +1161,13 @@
         <v>21</v>
       </c>
       <c r="C29" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1160,13 +1178,13 @@
         <v>21</v>
       </c>
       <c r="C30" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1177,13 +1195,13 @@
         <v>21</v>
       </c>
       <c r="C31" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1194,13 +1212,13 @@
         <v>21</v>
       </c>
       <c r="C32" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1211,13 +1229,13 @@
         <v>21</v>
       </c>
       <c r="C33" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1228,47 +1246,47 @@
         <v>21</v>
       </c>
       <c r="C34" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C35" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C36" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1279,13 +1297,13 @@
         <v>62</v>
       </c>
       <c r="C37" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1296,13 +1314,13 @@
         <v>62</v>
       </c>
       <c r="C38" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1313,13 +1331,13 @@
         <v>62</v>
       </c>
       <c r="C39" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1330,13 +1348,13 @@
         <v>62</v>
       </c>
       <c r="C40" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1347,13 +1365,13 @@
         <v>62</v>
       </c>
       <c r="C41" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1364,13 +1382,13 @@
         <v>62</v>
       </c>
       <c r="C42" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1381,13 +1399,13 @@
         <v>62</v>
       </c>
       <c r="C43" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1398,13 +1416,13 @@
         <v>62</v>
       </c>
       <c r="C44" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1415,13 +1433,13 @@
         <v>62</v>
       </c>
       <c r="C45" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1432,265 +1450,265 @@
         <v>62</v>
       </c>
       <c r="C46" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C47" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C48" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C49" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C50" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C51" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C52" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C53" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C54" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C55" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C56" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C57" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C58" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C59" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C60" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>11</v>
@@ -1698,16 +1716,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C62" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>12</v>
@@ -1715,50 +1733,50 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C63" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C64" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C65" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>14</v>
@@ -1766,67 +1784,67 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C66" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C67" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C68" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C69" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>17</v>
@@ -1834,33 +1852,33 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C70" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C71" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>18</v>
@@ -1868,149 +1886,149 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C72" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C73" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C74" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C75" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C76" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C77" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C78" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C79" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C80" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>27</v>
@@ -2021,30 +2039,30 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C81" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C82" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>27</v>
@@ -2055,19 +2073,19 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C83" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2075,16 +2093,16 @@
         <v>6</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C84" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2092,84 +2110,84 @@
         <v>6</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C85" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C86" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C87" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C88" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C89" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="1">
         <v>4</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2177,16 +2195,16 @@
         <v>7</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="C90" s="1">
+        <v>5</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2194,16 +2212,16 @@
         <v>7</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C91" s="3">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="C91" s="1">
+        <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2211,16 +2229,16 @@
         <v>7</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C92" s="3">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="C92" s="1">
+        <v>7</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2228,16 +2246,16 @@
         <v>7</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C93" s="3">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="C93" s="1">
+        <v>8</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2245,67 +2263,67 @@
         <v>7</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="C94" s="1">
+        <v>10</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C95" s="3">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="C95" s="1">
+        <v>11</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C96" s="3">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="C96" s="1">
+        <v>13</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C97" s="3">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="C97" s="1">
+        <v>15</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2313,16 +2331,16 @@
         <v>50</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C98" s="3">
-        <v>4</v>
+        <v>63</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2330,16 +2348,16 @@
         <v>50</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C99" s="3">
-        <v>5</v>
+        <v>63</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2347,16 +2365,16 @@
         <v>50</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C100" s="3">
-        <v>6</v>
+        <v>63</v>
+      </c>
+      <c r="C100" s="1">
+        <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2364,16 +2382,16 @@
         <v>50</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C101" s="3">
-        <v>7</v>
+        <v>63</v>
+      </c>
+      <c r="C101" s="1">
+        <v>4</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2381,16 +2399,16 @@
         <v>50</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C102" s="3">
-        <v>8</v>
+        <v>63</v>
+      </c>
+      <c r="C102" s="1">
+        <v>5</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2398,16 +2416,16 @@
         <v>50</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C103" s="3">
-        <v>9</v>
+        <v>63</v>
+      </c>
+      <c r="C103" s="1">
+        <v>6</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2415,16 +2433,16 @@
         <v>50</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C104" s="3">
-        <v>10</v>
+        <v>63</v>
+      </c>
+      <c r="C104" s="1">
+        <v>7</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2432,16 +2450,16 @@
         <v>50</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C105" s="3">
-        <v>11</v>
+        <v>63</v>
+      </c>
+      <c r="C105" s="1">
+        <v>8</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2449,16 +2467,16 @@
         <v>50</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C106" s="3">
-        <v>12</v>
+        <v>63</v>
+      </c>
+      <c r="C106" s="1">
+        <v>9</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2466,16 +2484,16 @@
         <v>50</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C107" s="3">
-        <v>13</v>
+        <v>63</v>
+      </c>
+      <c r="C107" s="1">
+        <v>10</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2483,16 +2501,16 @@
         <v>50</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C108" s="3">
-        <v>14</v>
+        <v>63</v>
+      </c>
+      <c r="C108" s="1">
+        <v>11</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2500,577 +2518,2583 @@
         <v>50</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C109" s="3">
-        <v>15</v>
+        <v>63</v>
+      </c>
+      <c r="C109" s="1">
+        <v>12</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C110" s="3">
-        <v>16</v>
+        <v>63</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C111" s="3">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C112" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C113" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C114" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C115" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C116" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C117" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C118" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
+      </c>
+      <c r="C119" s="1">
+        <v>10</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C120" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C121" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C122" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C123" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C124" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C125" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C126" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C127" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C128" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C129" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C130" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C131" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C132" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C133" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="C134" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="C135" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="C136" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="C137" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="C138" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C139" s="1">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C140" s="1">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C141" s="1">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="C141" s="3">
+        <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C142" s="3">
+        <v>2</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C143" s="3">
+        <v>3</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C145" s="3">
+        <v>1</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C146" s="3">
+        <v>2</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C147" s="3">
+        <v>3</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C148" s="3">
+        <v>4</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C149" s="3">
+        <v>5</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C150" s="3">
+        <v>6</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C151" s="3">
+        <v>7</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C152" s="3">
+        <v>8</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C153" s="3">
+        <v>9</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C154" s="3">
+        <v>10</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C155" s="3">
+        <v>11</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C156" s="3">
+        <v>12</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C157" s="3">
+        <v>13</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C158" s="3">
+        <v>14</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C159" s="3">
+        <v>15</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C160" s="3">
+        <v>16</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C161" s="3">
+        <v>17</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C163" s="3">
+        <v>2</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C164" s="3">
+        <v>3</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C165" s="3">
+        <v>4</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C166" s="3">
+        <v>5</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C167" s="3">
+        <v>6</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C168" s="3">
+        <v>7</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C169" s="3">
+        <v>8</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C170" s="3">
+        <v>9</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C171" s="3">
+        <v>10</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C172" s="3">
+        <v>11</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C173" s="3">
+        <v>12</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C174" s="3">
+        <v>13</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C175" s="3">
+        <v>14</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C176" s="3">
+        <v>15</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C177" s="3">
+        <v>16</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C178" s="3">
+        <v>17</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C179" s="3">
+        <v>1</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C180" s="3">
+        <v>2</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C181" s="3">
+        <v>3</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C182" s="3">
+        <v>4</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C183" s="3">
+        <v>5</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C184" s="3">
+        <v>6</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C185" s="3">
+        <v>7</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C186" s="3">
+        <v>8</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C187" s="3">
+        <v>9</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C188" s="3">
+        <v>10</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C189" s="3">
+        <v>11</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C190" s="3">
+        <v>12</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C191" s="3">
+        <v>13</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C192" s="3">
+        <v>14</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C193" s="3">
+        <v>15</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C194" s="3">
+        <v>16</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C195" s="3">
+        <v>17</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C196" s="1">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C197" s="1">
+        <v>2</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C198" s="1">
+        <v>3</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C199" s="1">
+        <v>4</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C200" s="1">
+        <v>5</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C201" s="1">
+        <v>6</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C202" s="1">
+        <v>7</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C204" s="1">
+        <v>0</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C205" s="1">
+        <v>1</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C206" s="1">
+        <v>2</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C207" s="1">
+        <v>3</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C208" s="1">
+        <v>4</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C209" s="1">
+        <v>5</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C210" s="1">
+        <v>6</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C211" s="1">
+        <v>1</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C212" s="1">
+        <v>2</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C213" s="1">
+        <v>3</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C214" s="1">
+        <v>4</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C215" s="1">
+        <v>5</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C216" s="1">
+        <v>6</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C217" s="1">
+        <v>7</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C218" s="1">
+        <v>8</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C219" s="1">
+        <v>9</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C220" s="1">
+        <v>10</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C221" s="1">
+        <v>11</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C222" s="1">
+        <v>12</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C223" s="1">
+        <v>13</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C224" s="1">
+        <v>14</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C225" s="1">
+        <v>15</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C226" s="1">
         <v>16</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E142" s="1" t="s">
+      <c r="D226" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E226" s="1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C227" s="1">
+        <v>1</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C228" s="1">
+        <v>2</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C229" s="1">
+        <v>3</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C230" s="1">
+        <v>4</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C231" s="1">
+        <v>5</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C232" s="1">
+        <v>6</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C233" s="1">
+        <v>7</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C234" s="1">
+        <v>8</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C235" s="1">
+        <v>9</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C236" s="1">
+        <v>10</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C237" s="1">
+        <v>11</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C238" s="1">
+        <v>12</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C239" s="1">
+        <v>13</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C240" s="1">
+        <v>14</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C241" s="1">
+        <v>15</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C242" s="1">
+        <v>16</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C243" s="1">
+        <v>17</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C244" s="1">
+        <v>1</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C245" s="1">
+        <v>2</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C246" s="1">
+        <v>3</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C247" s="1">
+        <v>4</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C248" s="1">
+        <v>5</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C249" s="1">
+        <v>6</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C250" s="1">
+        <v>7</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C251" s="1">
+        <v>8</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C252" s="1">
+        <v>9</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C253" s="1">
+        <v>10</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C254" s="1">
+        <v>11</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C255" s="1">
+        <v>12</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C256" s="1">
+        <v>13</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C257" s="1">
+        <v>14</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C258" s="1">
+        <v>15</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C259" s="1">
+        <v>16</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C260" s="1">
+        <v>17</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/make-uniform/production/Dictionary.xlsx
+++ b/make-uniform/production/Dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="76">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>Q406</t>
+  </si>
+  <si>
+    <t>Golden Gate Ferry</t>
+  </si>
+  <si>
+    <t>START HERE</t>
   </si>
 </sst>
 </file>
@@ -285,12 +291,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -309,7 +321,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -318,6 +330,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -663,11 +678,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E260"/>
+  <dimension ref="A1:E286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -781,16 +796,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -798,16 +813,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
@@ -815,16 +830,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -832,10 +847,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -849,10 +864,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -866,36 +881,36 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -906,13 +921,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -923,13 +938,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -940,13 +955,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -957,13 +972,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -974,13 +989,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -991,13 +1006,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1008,13 +1023,13 @@
         <v>9</v>
       </c>
       <c r="C20" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1025,13 +1040,13 @@
         <v>9</v>
       </c>
       <c r="C21" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1042,13 +1057,13 @@
         <v>9</v>
       </c>
       <c r="C22" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1059,13 +1074,13 @@
         <v>9</v>
       </c>
       <c r="C23" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1076,47 +1091,47 @@
         <v>9</v>
       </c>
       <c r="C24" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1127,13 +1142,13 @@
         <v>21</v>
       </c>
       <c r="C27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1144,13 +1159,13 @@
         <v>21</v>
       </c>
       <c r="C28" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1161,13 +1176,13 @@
         <v>21</v>
       </c>
       <c r="C29" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1178,13 +1193,13 @@
         <v>21</v>
       </c>
       <c r="C30" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1195,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="C31" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1212,13 +1227,13 @@
         <v>21</v>
       </c>
       <c r="C32" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1229,13 +1244,13 @@
         <v>21</v>
       </c>
       <c r="C33" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1246,13 +1261,13 @@
         <v>21</v>
       </c>
       <c r="C34" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1263,13 +1278,13 @@
         <v>21</v>
       </c>
       <c r="C35" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1280,47 +1295,47 @@
         <v>21</v>
       </c>
       <c r="C36" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C37" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C38" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1331,13 +1346,13 @@
         <v>62</v>
       </c>
       <c r="C39" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1348,13 +1363,13 @@
         <v>62</v>
       </c>
       <c r="C40" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1365,13 +1380,13 @@
         <v>62</v>
       </c>
       <c r="C41" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1382,13 +1397,13 @@
         <v>62</v>
       </c>
       <c r="C42" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1399,13 +1414,13 @@
         <v>62</v>
       </c>
       <c r="C43" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1416,13 +1431,13 @@
         <v>62</v>
       </c>
       <c r="C44" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1433,13 +1448,13 @@
         <v>62</v>
       </c>
       <c r="C45" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1450,13 +1465,13 @@
         <v>62</v>
       </c>
       <c r="C46" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1467,13 +1482,13 @@
         <v>62</v>
       </c>
       <c r="C47" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1484,47 +1499,47 @@
         <v>62</v>
       </c>
       <c r="C48" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C50" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1535,13 +1550,13 @@
         <v>62</v>
       </c>
       <c r="C51" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1552,13 +1567,13 @@
         <v>62</v>
       </c>
       <c r="C52" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1569,13 +1584,13 @@
         <v>62</v>
       </c>
       <c r="C53" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1586,13 +1601,13 @@
         <v>62</v>
       </c>
       <c r="C54" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1603,13 +1618,13 @@
         <v>62</v>
       </c>
       <c r="C55" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1620,13 +1635,13 @@
         <v>62</v>
       </c>
       <c r="C56" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1637,13 +1652,13 @@
         <v>62</v>
       </c>
       <c r="C57" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1654,13 +1669,13 @@
         <v>62</v>
       </c>
       <c r="C58" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1671,13 +1686,13 @@
         <v>62</v>
       </c>
       <c r="C59" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1688,47 +1703,47 @@
         <v>62</v>
       </c>
       <c r="C60" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C61" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1739,13 +1754,13 @@
         <v>62</v>
       </c>
       <c r="C63" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1756,13 +1771,13 @@
         <v>62</v>
       </c>
       <c r="C64" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1773,13 +1788,13 @@
         <v>62</v>
       </c>
       <c r="C65" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1790,13 +1805,13 @@
         <v>62</v>
       </c>
       <c r="C66" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1807,13 +1822,13 @@
         <v>62</v>
       </c>
       <c r="C67" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1824,13 +1839,13 @@
         <v>62</v>
       </c>
       <c r="C68" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1841,13 +1856,13 @@
         <v>62</v>
       </c>
       <c r="C69" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1858,13 +1873,13 @@
         <v>62</v>
       </c>
       <c r="C70" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1875,13 +1890,13 @@
         <v>62</v>
       </c>
       <c r="C71" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1892,262 +1907,262 @@
         <v>62</v>
       </c>
       <c r="C72" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C73" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C74" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C75" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C76" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C77" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C78" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C79" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C80" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C81" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C82" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C83" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C84" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C85" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C86" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C87" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>27</v>
@@ -2158,13 +2173,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C88" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>27</v>
@@ -2175,47 +2190,47 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C89" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C90" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C91" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>27</v>
@@ -2226,64 +2241,64 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C92" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C93" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C94" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C95" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>27</v>
@@ -2294,81 +2309,81 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C96" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C97" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C98" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C99" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C100" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>27</v>
@@ -2379,98 +2394,98 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C101" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C102" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C103" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C104" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C105" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C106" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>27</v>
@@ -2481,13 +2496,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C107" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>27</v>
@@ -2498,30 +2513,30 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C108" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C109" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>27</v>
@@ -2532,863 +2547,728 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C110" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C111" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C112" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C113" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C114" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C115" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C116" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C117" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C118" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C119" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C120" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C121" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C122" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C123" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C124" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C125" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C126" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C127" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C128" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C129" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C130" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C131" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C132" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C133" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C134" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C135" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C136" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C137" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C138" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C139" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C139" s="1">
         <v>4</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>48</v>
+        <v>63</v>
+      </c>
+      <c r="C140" s="1">
+        <v>5</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C141" s="3">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="C141" s="1">
+        <v>6</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C142" s="3">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="C142" s="1">
+        <v>7</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C143" s="3">
-        <v>3</v>
+        <v>63</v>
+      </c>
+      <c r="C143" s="1">
+        <v>8</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>49</v>
+        <v>63</v>
+      </c>
+      <c r="C144" s="1">
+        <v>9</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C145" s="3">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="C145" s="1">
+        <v>10</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C146" s="3">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="C146" s="1">
+        <v>11</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C147" s="3">
-        <v>3</v>
+        <v>63</v>
+      </c>
+      <c r="C147" s="1">
+        <v>12</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C148" s="3">
+        <v>63</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C149" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C150" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C151" s="1">
         <v>4</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C149" s="3">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C152" s="1">
         <v>5</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C150" s="3">
-        <v>6</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C151" s="3">
-        <v>7</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C152" s="3">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C153" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C154" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C155" s="1">
         <v>8</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C153" s="3">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C156" s="1">
         <v>9</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C154" s="3">
-        <v>10</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C155" s="3">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C157" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C158" s="1">
         <v>11</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C156" s="3">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C159" s="1">
         <v>12</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C157" s="3">
-        <v>13</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C158" s="3">
-        <v>14</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C159" s="3">
-        <v>15</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C160" s="3">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="C160" s="1">
+        <v>1</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>31</v>
@@ -3399,764 +3279,764 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C161" s="3">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="C161" s="1">
+        <v>2</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C162" s="3">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="C162" s="1">
+        <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C163" s="3">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="C163" s="1">
+        <v>4</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C164" s="3">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="C164" s="1">
+        <v>5</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C165" s="3">
+        <v>37</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C166" s="3">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C167" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C168" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C169" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C170" s="3">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C171" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C172" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C173" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C174" s="3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C175" s="3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C176" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C177" s="3">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C178" s="3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C179" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C180" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C181" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C182" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C183" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C184" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C185" s="3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C186" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C187" s="3">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C188" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C189" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C190" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C191" s="3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C192" s="3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C193" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C194" s="3">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C195" s="3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C196" s="1">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="C196" s="3">
+        <v>9</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C197" s="1">
-        <v>2</v>
+        <v>68</v>
+      </c>
+      <c r="C197" s="3">
+        <v>10</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C198" s="1">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="C198" s="3">
+        <v>11</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C199" s="1">
-        <v>4</v>
+        <v>68</v>
+      </c>
+      <c r="C199" s="3">
+        <v>12</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C200" s="1">
-        <v>5</v>
+        <v>68</v>
+      </c>
+      <c r="C200" s="3">
+        <v>13</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C201" s="1">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="C201" s="3">
+        <v>14</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C202" s="1">
-        <v>7</v>
+        <v>68</v>
+      </c>
+      <c r="C202" s="3">
+        <v>15</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>4</v>
+        <v>68</v>
+      </c>
+      <c r="C203" s="3">
+        <v>16</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C204" s="1">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="C204" s="3">
+        <v>17</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C205" s="1">
+        <v>72</v>
+      </c>
+      <c r="C205" s="3">
         <v>1</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>36</v>
@@ -4164,16 +4044,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C206" s="1">
+        <v>72</v>
+      </c>
+      <c r="C206" s="3">
         <v>2</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>33</v>
@@ -4181,16 +4061,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C207" s="1">
+        <v>72</v>
+      </c>
+      <c r="C207" s="3">
         <v>3</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>34</v>
@@ -4198,16 +4078,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C208" s="1">
+        <v>72</v>
+      </c>
+      <c r="C208" s="3">
         <v>4</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>35</v>
@@ -4215,16 +4095,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C209" s="1">
+        <v>72</v>
+      </c>
+      <c r="C209" s="3">
         <v>5</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>45</v>
@@ -4232,16 +4112,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C210" s="1">
+        <v>72</v>
+      </c>
+      <c r="C210" s="3">
         <v>6</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>46</v>
@@ -4249,506 +4129,506 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C211" s="1">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="C211" s="3">
+        <v>7</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C212" s="1">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="C212" s="3">
+        <v>8</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C213" s="1">
-        <v>3</v>
+        <v>72</v>
+      </c>
+      <c r="C213" s="3">
+        <v>9</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C214" s="1">
-        <v>4</v>
+        <v>72</v>
+      </c>
+      <c r="C214" s="3">
+        <v>10</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C215" s="1">
-        <v>5</v>
+        <v>72</v>
+      </c>
+      <c r="C215" s="3">
+        <v>11</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C216" s="1">
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="C216" s="3">
+        <v>12</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C217" s="1">
-        <v>7</v>
+        <v>72</v>
+      </c>
+      <c r="C217" s="3">
+        <v>13</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C218" s="1">
-        <v>8</v>
+        <v>72</v>
+      </c>
+      <c r="C218" s="3">
+        <v>14</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C219" s="1">
-        <v>9</v>
+        <v>72</v>
+      </c>
+      <c r="C219" s="3">
+        <v>15</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C220" s="1">
-        <v>10</v>
+        <v>72</v>
+      </c>
+      <c r="C220" s="3">
+        <v>16</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C221" s="1">
-        <v>11</v>
+        <v>72</v>
+      </c>
+      <c r="C221" s="3">
+        <v>17</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C222" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C223" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C224" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C225" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C226" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C227" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C228" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C229" s="1">
-        <v>3</v>
+        <v>41</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C230" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C231" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C232" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C233" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C234" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C235" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C236" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C237" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C238" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C239" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C240" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>40</v>
@@ -4759,341 +4639,783 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C241" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C242" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C243" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C244" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C245" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C246" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C247" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C248" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C249" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C250" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C251" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C252" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C253" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C254" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C255" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C256" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C257" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C258" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C259" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C260" s="1">
+        <v>8</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C261" s="1">
+        <v>9</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C262" s="1">
+        <v>10</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C263" s="1">
+        <v>11</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C264" s="1">
+        <v>12</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C265" s="1">
+        <v>13</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C266" s="1">
+        <v>14</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C267" s="1">
+        <v>15</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C268" s="1">
+        <v>16</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C269" s="1">
+        <v>17</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C260" s="1">
+      <c r="C270" s="1">
+        <v>1</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C271" s="1">
+        <v>2</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C272" s="1">
+        <v>3</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C273" s="1">
+        <v>4</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C274" s="1">
+        <v>5</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C275" s="1">
+        <v>6</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C276" s="1">
+        <v>7</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C277" s="1">
+        <v>8</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C278" s="1">
+        <v>9</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C279" s="1">
+        <v>10</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C280" s="1">
+        <v>11</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C281" s="1">
+        <v>12</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C282" s="1">
+        <v>13</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C283" s="1">
+        <v>14</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C284" s="1">
+        <v>15</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C285" s="1">
+        <v>16</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C286" s="1">
         <v>17</v>
       </c>
-      <c r="D260" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E260" s="1" t="s">
+      <c r="D286" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E286" s="1" t="s">
         <v>60</v>
       </c>
     </row>

--- a/make-uniform/production/Dictionary.xlsx
+++ b/make-uniform/production/Dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="65">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -195,6 +195,30 @@
   </si>
   <si>
     <t>LAVTA</t>
+  </si>
+  <si>
+    <t>Napa Vine</t>
+  </si>
+  <si>
+    <t>six or more</t>
+  </si>
+  <si>
+    <t>Petaluma</t>
+  </si>
+  <si>
+    <t>SamTrans</t>
+  </si>
+  <si>
+    <t>Santa Rosa CityBus</t>
+  </si>
+  <si>
+    <t>Sonoma County</t>
+  </si>
+  <si>
+    <t>Union City</t>
+  </si>
+  <si>
+    <t>SF Bay Ferry</t>
   </si>
 </sst>
 </file>
@@ -612,11 +636,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E209"/>
+  <dimension ref="A1:E439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A112" sqref="A112"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -764,16 +788,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -781,16 +805,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
@@ -798,16 +822,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -815,16 +839,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>4</v>
@@ -832,16 +856,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>4</v>
@@ -849,16 +873,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>4</v>
@@ -866,16 +890,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
@@ -886,98 +910,98 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="1">
-        <v>5</v>
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>4</v>
@@ -985,325 +1009,325 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>31</v>
+        <v>52</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="3">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="3">
-        <v>3</v>
+        <v>52</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="3">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="3">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="3">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="3">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="3">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="3">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="3">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C37" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C38" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C39" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="3">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1314,13 +1338,13 @@
         <v>45</v>
       </c>
       <c r="C41" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1331,13 +1355,13 @@
         <v>45</v>
       </c>
       <c r="C42" s="3">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1348,251 +1372,251 @@
         <v>45</v>
       </c>
       <c r="C43" s="3">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C44" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C45" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C46" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C47" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C48" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C49" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C50" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C51" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C52" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C53" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C54" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C55" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C56" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C57" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1603,13 +1627,13 @@
         <v>49</v>
       </c>
       <c r="C58" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1620,13 +1644,13 @@
         <v>49</v>
       </c>
       <c r="C59" s="3">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1637,251 +1661,251 @@
         <v>49</v>
       </c>
       <c r="C60" s="3">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C61" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C62" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C63" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C64" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C65" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C66" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C67" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C68" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C69" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C70" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C71" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C72" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C73" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C74" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1892,13 +1916,13 @@
         <v>53</v>
       </c>
       <c r="C75" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -1909,13 +1933,13 @@
         <v>53</v>
       </c>
       <c r="C76" s="3">
+        <v>2</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -1926,251 +1950,251 @@
         <v>53</v>
       </c>
       <c r="C77" s="3">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C78" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C79" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C80" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C81" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C82" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C83" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C84" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C85" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C86" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C87" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C88" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C89" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C90" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C91" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2181,13 +2205,13 @@
         <v>53</v>
       </c>
       <c r="C92" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2198,13 +2222,13 @@
         <v>53</v>
       </c>
       <c r="C93" s="3">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2215,251 +2239,251 @@
         <v>53</v>
       </c>
       <c r="C94" s="3">
+        <v>3</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C95" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C96" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C97" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C98" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C99" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C100" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C101" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C102" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C103" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C104" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C105" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C106" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C107" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C108" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2470,13 +2494,13 @@
         <v>53</v>
       </c>
       <c r="C109" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -2487,13 +2511,13 @@
         <v>53</v>
       </c>
       <c r="C110" s="3">
+        <v>2</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2504,1678 +2528,5588 @@
         <v>53</v>
       </c>
       <c r="C111" s="3">
+        <v>3</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C112" s="1">
-        <v>2</v>
+        <v>53</v>
+      </c>
+      <c r="C112" s="3">
+        <v>4</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C113" s="1">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="C113" s="3">
+        <v>5</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C114" s="3">
         <v>6</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C114" s="1">
-        <v>4</v>
-      </c>
       <c r="D114" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C115" s="1">
-        <v>5</v>
+        <v>53</v>
+      </c>
+      <c r="C115" s="3">
+        <v>7</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C116" s="1">
-        <v>6</v>
+        <v>53</v>
+      </c>
+      <c r="C116" s="3">
+        <v>8</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C117" s="1">
-        <v>7</v>
+        <v>53</v>
+      </c>
+      <c r="C117" s="3">
+        <v>9</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>4</v>
+        <v>53</v>
+      </c>
+      <c r="C118" s="3">
+        <v>10</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C119" s="1">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="C119" s="3">
+        <v>11</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C120" s="1">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="C120" s="3">
+        <v>12</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C121" s="1">
-        <v>2</v>
+        <v>53</v>
+      </c>
+      <c r="C121" s="3">
+        <v>13</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C122" s="1">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="C122" s="3">
+        <v>14</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C123" s="1">
-        <v>4</v>
+        <v>53</v>
+      </c>
+      <c r="C123" s="3">
+        <v>15</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C124" s="1">
-        <v>5</v>
+        <v>53</v>
+      </c>
+      <c r="C124" s="3">
+        <v>16</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C125" s="1">
-        <v>6</v>
+        <v>53</v>
+      </c>
+      <c r="C125" s="3">
+        <v>17</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C126" s="1">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C127" s="1">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="C127" s="3">
+        <v>1</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C128" s="1">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="C128" s="3">
+        <v>2</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C129" s="1">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="C129" s="3">
+        <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C130" s="1">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C131" s="1">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="C131" s="3">
+        <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C132" s="1">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="C132" s="3">
+        <v>2</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C133" s="1">
-        <v>8</v>
+        <v>49</v>
+      </c>
+      <c r="C133" s="3">
+        <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C134" s="1">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="C134" s="3">
+        <v>4</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C135" s="1">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="C135" s="3">
+        <v>5</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C136" s="1">
-        <v>11</v>
+        <v>49</v>
+      </c>
+      <c r="C136" s="3">
+        <v>6</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C137" s="1">
-        <v>12</v>
+        <v>49</v>
+      </c>
+      <c r="C137" s="3">
+        <v>7</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C138" s="1">
-        <v>13</v>
+        <v>49</v>
+      </c>
+      <c r="C138" s="3">
+        <v>8</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C139" s="1">
-        <v>14</v>
+        <v>49</v>
+      </c>
+      <c r="C139" s="3">
+        <v>9</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C140" s="1">
-        <v>15</v>
+        <v>49</v>
+      </c>
+      <c r="C140" s="3">
+        <v>10</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C141" s="1">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="C141" s="3">
+        <v>11</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C142" s="1">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="C142" s="3">
+        <v>12</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C143" s="1">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="C143" s="3">
+        <v>13</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C144" s="1">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="C144" s="3">
+        <v>14</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C145" s="1">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="C145" s="3">
+        <v>15</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C146" s="1">
-        <v>5</v>
+        <v>49</v>
+      </c>
+      <c r="C146" s="3">
+        <v>16</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C147" s="1">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="C147" s="3">
+        <v>17</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C148" s="1">
-        <v>7</v>
+        <v>44</v>
+      </c>
+      <c r="C148" s="3">
+        <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C149" s="1">
-        <v>8</v>
+        <v>44</v>
+      </c>
+      <c r="C149" s="3">
+        <v>2</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C150" s="1">
-        <v>9</v>
+        <v>44</v>
+      </c>
+      <c r="C150" s="3">
+        <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C151" s="1">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="C151" s="3">
+        <v>4</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C152" s="1">
-        <v>11</v>
+        <v>44</v>
+      </c>
+      <c r="C152" s="3">
+        <v>5</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C153" s="1">
-        <v>12</v>
+        <v>44</v>
+      </c>
+      <c r="C153" s="3">
+        <v>6</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C154" s="1">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="C154" s="3">
+        <v>7</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C155" s="1">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="C155" s="3">
+        <v>8</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C156" s="1">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="C156" s="3">
+        <v>9</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C157" s="1">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="C157" s="3">
+        <v>10</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C158" s="1">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="C158" s="3">
+        <v>11</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C159" s="1">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="C159" s="3">
+        <v>12</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C160" s="1">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="C160" s="3">
+        <v>13</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C161" s="1">
-        <v>3</v>
+        <v>44</v>
+      </c>
+      <c r="C161" s="3">
+        <v>14</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C162" s="1">
-        <v>4</v>
+        <v>44</v>
+      </c>
+      <c r="C162" s="3">
+        <v>15</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C163" s="1">
-        <v>5</v>
+        <v>44</v>
+      </c>
+      <c r="C163" s="3">
+        <v>16</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C164" s="1">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="C164" s="3">
+        <v>17</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C165" s="1">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C166" s="1">
-        <v>8</v>
+        <v>49</v>
+      </c>
+      <c r="C166" s="3">
+        <v>2</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C167" s="1">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="C167" s="3">
+        <v>3</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C168" s="1">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="C168" s="3">
+        <v>4</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C169" s="1">
-        <v>11</v>
+        <v>49</v>
+      </c>
+      <c r="C169" s="3">
+        <v>5</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C170" s="1">
-        <v>12</v>
+        <v>49</v>
+      </c>
+      <c r="C170" s="3">
+        <v>6</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C171" s="1">
-        <v>13</v>
+        <v>49</v>
+      </c>
+      <c r="C171" s="3">
+        <v>7</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C172" s="1">
-        <v>14</v>
+        <v>49</v>
+      </c>
+      <c r="C172" s="3">
+        <v>8</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C173" s="1">
-        <v>15</v>
+        <v>49</v>
+      </c>
+      <c r="C173" s="3">
+        <v>9</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C174" s="1">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="C174" s="3">
+        <v>10</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C175" s="1">
-        <v>17</v>
+        <v>49</v>
+      </c>
+      <c r="C175" s="3">
+        <v>11</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C176" s="1">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="C176" s="3">
+        <v>12</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C177" s="1">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="C177" s="3">
+        <v>13</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C178" s="1">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="C178" s="3">
+        <v>14</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C179" s="1">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="C179" s="3">
+        <v>15</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C180" s="1">
-        <v>5</v>
+        <v>49</v>
+      </c>
+      <c r="C180" s="3">
+        <v>16</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C181" s="1">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="C181" s="3">
+        <v>17</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C182" s="1">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="C182" s="3">
+        <v>1</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C183" s="1">
-        <v>8</v>
+        <v>49</v>
+      </c>
+      <c r="C183" s="3">
+        <v>2</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C184" s="1">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="C184" s="3">
+        <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C185" s="1">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="C185" s="3">
+        <v>4</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C186" s="1">
-        <v>11</v>
+        <v>49</v>
+      </c>
+      <c r="C186" s="3">
+        <v>5</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C187" s="1">
-        <v>12</v>
+        <v>49</v>
+      </c>
+      <c r="C187" s="3">
+        <v>6</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C188" s="1">
-        <v>13</v>
+        <v>49</v>
+      </c>
+      <c r="C188" s="3">
+        <v>7</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C189" s="1">
-        <v>14</v>
+        <v>49</v>
+      </c>
+      <c r="C189" s="3">
+        <v>8</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C190" s="1">
-        <v>15</v>
+        <v>49</v>
+      </c>
+      <c r="C190" s="3">
+        <v>9</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C191" s="1">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="C191" s="3">
+        <v>10</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C192" s="1">
-        <v>17</v>
+        <v>49</v>
+      </c>
+      <c r="C192" s="3">
+        <v>11</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C193" s="1">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="C193" s="3">
+        <v>12</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C194" s="1">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="C194" s="3">
+        <v>13</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C195" s="1">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="C195" s="3">
+        <v>14</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C196" s="1">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="C196" s="3">
+        <v>15</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C197" s="1">
-        <v>5</v>
+        <v>49</v>
+      </c>
+      <c r="C197" s="3">
+        <v>16</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C198" s="1">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="C198" s="3">
+        <v>17</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C199" s="1">
-        <v>7</v>
+        <v>45</v>
+      </c>
+      <c r="C199" s="3">
+        <v>1</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C200" s="1">
-        <v>8</v>
+        <v>45</v>
+      </c>
+      <c r="C200" s="3">
+        <v>2</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C201" s="1">
-        <v>9</v>
+        <v>45</v>
+      </c>
+      <c r="C201" s="3">
+        <v>3</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C202" s="1">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="C202" s="3">
+        <v>4</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C203" s="1">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="C203" s="3">
+        <v>5</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C204" s="1">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="C204" s="3">
+        <v>6</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C205" s="1">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="C205" s="3">
+        <v>7</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C206" s="1">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="C206" s="3">
+        <v>8</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C207" s="1">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="C207" s="3">
+        <v>9</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C208" s="1">
-        <v>16</v>
+        <v>45</v>
+      </c>
+      <c r="C208" s="3">
+        <v>10</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C209" s="3">
+        <v>11</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C210" s="3">
+        <v>12</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C211" s="3">
+        <v>13</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C212" s="3">
+        <v>14</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C213" s="3">
+        <v>15</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C214" s="3">
+        <v>16</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C215" s="3">
+        <v>17</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C216" s="3">
+        <v>1</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C217" s="3">
+        <v>2</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C218" s="3">
+        <v>3</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C219" s="3">
+        <v>4</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C220" s="3">
+        <v>5</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C221" s="3">
+        <v>6</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C222" s="3">
+        <v>7</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C223" s="3">
+        <v>8</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C224" s="3">
+        <v>9</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C225" s="3">
+        <v>10</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C226" s="3">
+        <v>11</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C227" s="3">
+        <v>12</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C228" s="3">
+        <v>13</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C229" s="3">
+        <v>14</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C230" s="3">
+        <v>15</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C231" s="3">
+        <v>16</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C232" s="3">
+        <v>17</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C233" s="1">
+        <v>2</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C234" s="1">
+        <v>3</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C235" s="1">
+        <v>4</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C236" s="1">
+        <v>5</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C237" s="1">
+        <v>6</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C238" s="1">
+        <v>7</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C240" s="1">
+        <v>0</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C241" s="1">
+        <v>1</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C242" s="1">
+        <v>2</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C243" s="1">
+        <v>3</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C244" s="1">
+        <v>4</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C245" s="1">
+        <v>5</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C246" s="1">
+        <v>6</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C247" s="1">
+        <v>1</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C248" s="1">
+        <v>2</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C249" s="1">
+        <v>3</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C250" s="1">
+        <v>4</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C251" s="1">
+        <v>5</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C252" s="1">
+        <v>6</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C253" s="1">
+        <v>7</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C254" s="1">
+        <v>8</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C255" s="1">
+        <v>9</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C256" s="1">
+        <v>10</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C257" s="1">
+        <v>11</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C258" s="1">
+        <v>12</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C259" s="1">
+        <v>13</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C260" s="1">
+        <v>14</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C261" s="1">
+        <v>15</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C262" s="1">
+        <v>16</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C263" s="1">
+        <v>1</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C264" s="1">
+        <v>2</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C265" s="1">
+        <v>3</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C266" s="1">
+        <v>4</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C267" s="1">
+        <v>5</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C268" s="1">
+        <v>6</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C269" s="1">
+        <v>7</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C270" s="1">
+        <v>8</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C271" s="1">
+        <v>9</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C272" s="1">
+        <v>10</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C273" s="1">
+        <v>11</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C274" s="1">
+        <v>12</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C275" s="1">
+        <v>13</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C276" s="1">
+        <v>14</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C277" s="1">
+        <v>15</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C278" s="1">
+        <v>16</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C279" s="1">
+        <v>17</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C280" s="1">
+        <v>1</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C281" s="1">
+        <v>2</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C282" s="1">
+        <v>3</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C283" s="1">
+        <v>4</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C284" s="1">
+        <v>5</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C285" s="1">
+        <v>6</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C286" s="1">
+        <v>7</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C287" s="1">
+        <v>8</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C288" s="1">
+        <v>9</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C289" s="1">
+        <v>10</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C290" s="1">
+        <v>11</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C291" s="1">
+        <v>12</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C292" s="1">
+        <v>13</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C293" s="1">
+        <v>14</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C294" s="1">
+        <v>15</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C295" s="1">
+        <v>16</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C296" s="1">
+        <v>17</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C297" s="1">
+        <v>1</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C298" s="1">
+        <v>2</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C299" s="1">
+        <v>3</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C300" s="1">
+        <v>4</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C301" s="1">
+        <v>5</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C302" s="1">
+        <v>6</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C303" s="1">
+        <v>7</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C304" s="1">
+        <v>8</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C305" s="1">
+        <v>9</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C306" s="1">
+        <v>10</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C307" s="1">
+        <v>11</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C308" s="1">
+        <v>12</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C309" s="1">
+        <v>13</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C310" s="1">
+        <v>14</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C311" s="1">
+        <v>15</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C312" s="1">
+        <v>16</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C313" s="1">
+        <v>17</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B314" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C209" s="1">
+      <c r="C314" s="1">
+        <v>1</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C315" s="1">
+        <v>2</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C316" s="1">
+        <v>3</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E316" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D209" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E209" s="1" t="s">
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C317" s="1">
+        <v>4</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C318" s="1">
+        <v>5</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C319" s="1">
+        <v>6</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C320" s="1">
+        <v>7</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C321" s="1">
+        <v>8</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C322" s="1">
+        <v>9</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C323" s="1">
+        <v>10</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C324" s="1">
+        <v>11</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C325" s="1">
+        <v>12</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C326" s="1">
+        <v>13</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C327" s="1">
+        <v>14</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C328" s="1">
+        <v>15</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C329" s="1">
+        <v>16</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C330" s="1">
+        <v>17</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C331" s="1">
+        <v>0</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C332" s="1">
+        <v>1</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C333" s="1">
+        <v>2</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C334" s="1">
+        <v>3</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C335" s="1">
+        <v>4</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C336" s="1">
+        <v>5</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C337" s="1">
+        <v>6</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C338" s="1">
+        <v>1</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C339" s="1">
+        <v>2</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C340" s="1">
+        <v>3</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C341" s="1">
+        <v>4</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C342" s="1">
+        <v>5</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C343" s="1">
+        <v>6</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C344" s="1">
+        <v>7</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C345" s="1">
+        <v>8</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C346" s="1">
+        <v>9</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C347" s="1">
+        <v>10</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C348" s="1">
+        <v>11</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C349" s="1">
+        <v>12</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C350" s="1">
+        <v>13</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C351" s="1">
+        <v>14</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C352" s="1">
+        <v>15</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C353" s="1">
+        <v>16</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C354" s="1">
+        <v>17</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C355" s="1">
+        <v>1</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C356" s="1">
+        <v>2</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C357" s="1">
+        <v>3</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C358" s="1">
+        <v>4</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C359" s="1">
+        <v>5</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C360" s="1">
+        <v>6</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C361" s="1">
+        <v>7</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C362" s="1">
+        <v>8</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C363" s="1">
+        <v>9</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C364" s="1">
+        <v>10</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C365" s="1">
+        <v>11</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C366" s="1">
+        <v>12</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C367" s="1">
+        <v>13</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C368" s="1">
+        <v>14</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C369" s="1">
+        <v>15</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C370" s="1">
+        <v>16</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C371" s="1">
+        <v>17</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C372" s="1">
+        <v>1</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C373" s="1">
+        <v>2</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C374" s="1">
+        <v>3</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C375" s="1">
+        <v>4</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C376" s="1">
+        <v>5</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C377" s="1">
+        <v>6</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C378" s="1">
+        <v>7</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C379" s="1">
+        <v>8</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C380" s="1">
+        <v>9</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C381" s="1">
+        <v>10</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C382" s="1">
+        <v>11</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C383" s="1">
+        <v>12</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C384" s="1">
+        <v>13</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C385" s="1">
+        <v>14</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C386" s="1">
+        <v>15</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C387" s="1">
+        <v>16</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C388" s="1">
+        <v>17</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C389" s="1">
+        <v>1</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C390" s="1">
+        <v>2</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C391" s="1">
+        <v>3</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C392" s="1">
+        <v>4</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C393" s="1">
+        <v>5</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C394" s="1">
+        <v>6</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C395" s="1">
+        <v>7</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C396" s="1">
+        <v>8</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C397" s="1">
+        <v>9</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C398" s="1">
+        <v>10</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C399" s="1">
+        <v>11</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C400" s="1">
+        <v>12</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C401" s="1">
+        <v>13</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C402" s="1">
+        <v>14</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C403" s="1">
+        <v>15</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C404" s="1">
+        <v>16</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C405" s="1">
+        <v>17</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C406" s="1">
+        <v>1</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C407" s="1">
+        <v>2</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C408" s="1">
+        <v>3</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C409" s="1">
+        <v>4</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C410" s="1">
+        <v>5</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C411" s="1">
+        <v>6</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C412" s="1">
+        <v>7</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C413" s="1">
+        <v>8</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C414" s="1">
+        <v>9</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C415" s="1">
+        <v>10</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C416" s="1">
+        <v>11</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C417" s="1">
+        <v>12</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C418" s="1">
+        <v>13</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C419" s="1">
+        <v>14</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C420" s="1">
+        <v>15</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C421" s="1">
+        <v>16</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C422" s="1">
+        <v>17</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C423" s="1">
+        <v>1</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C424" s="1">
+        <v>2</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C425" s="1">
+        <v>3</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C426" s="1">
+        <v>4</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C427" s="1">
+        <v>5</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C428" s="1">
+        <v>6</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C429" s="1">
+        <v>7</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C430" s="1">
+        <v>8</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C431" s="1">
+        <v>9</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C432" s="1">
+        <v>10</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C433" s="1">
+        <v>11</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C434" s="1">
+        <v>12</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C435" s="1">
+        <v>13</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C436" s="1">
+        <v>14</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C437" s="1">
+        <v>15</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C438" s="1">
+        <v>16</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C439" s="1">
+        <v>17</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E439" s="1" t="s">
         <v>43</v>
       </c>
     </row>

--- a/make-uniform/production/Dictionary.xlsx
+++ b/make-uniform/production/Dictionary.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Dictionary" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="78">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>vehicles_additional_info</t>
-  </si>
-  <si>
-    <t>EMPLYD_IN_HH</t>
   </si>
   <si>
     <t>five</t>
@@ -219,6 +216,48 @@
   </si>
   <si>
     <t>SF Bay Ferry</t>
+  </si>
+  <si>
+    <t>EMPLYD_IN_HH_CODE</t>
+  </si>
+  <si>
+    <t>PPL_IN_HH_CODE</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10PL</t>
+  </si>
+  <si>
+    <t>persons</t>
+  </si>
+  <si>
+    <t>ten or more</t>
   </si>
 </sst>
 </file>
@@ -636,11 +675,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E439"/>
+  <dimension ref="A1:E459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A430" sqref="A430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -652,7 +691,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -703,7 +742,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -720,7 +759,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -737,7 +776,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -754,7 +793,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -771,7 +810,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -788,7 +827,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -805,7 +844,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -822,7 +861,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -839,7 +878,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -856,7 +895,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -873,7 +912,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -890,7 +929,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -941,10 +980,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -958,10 +997,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -975,10 +1014,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
@@ -992,10 +1031,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1009,10 +1048,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1026,7 +1065,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>9</v>
@@ -1043,10 +1082,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1060,10 +1099,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1077,10 +1116,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1094,10 +1133,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1111,10 +1150,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1128,10 +1167,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1253,7 +1292,7 @@
         <v>13</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>14</v>
@@ -1321,7 +1360,7 @@
         <v>13</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>14</v>
@@ -1332,10 +1371,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -1349,10 +1388,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="3">
         <v>2</v>
@@ -1366,10 +1405,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="3">
         <v>3</v>
@@ -1383,10 +1422,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="3">
         <v>4</v>
@@ -1400,10 +1439,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="3">
         <v>5</v>
@@ -1412,15 +1451,15 @@
         <v>14</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="3">
         <v>6</v>
@@ -1429,15 +1468,15 @@
         <v>14</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="3">
         <v>7</v>
@@ -1446,15 +1485,15 @@
         <v>14</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="3">
         <v>8</v>
@@ -1463,15 +1502,15 @@
         <v>14</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="3">
         <v>9</v>
@@ -1480,15 +1519,15 @@
         <v>14</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="3">
         <v>10</v>
@@ -1497,15 +1536,15 @@
         <v>14</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="3">
         <v>11</v>
@@ -1514,15 +1553,15 @@
         <v>14</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C52" s="3">
         <v>12</v>
@@ -1531,15 +1570,15 @@
         <v>14</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" s="3">
         <v>13</v>
@@ -1548,15 +1587,15 @@
         <v>14</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C54" s="3">
         <v>14</v>
@@ -1565,15 +1604,15 @@
         <v>14</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55" s="3">
         <v>15</v>
@@ -1582,15 +1621,15 @@
         <v>14</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="3">
         <v>16</v>
@@ -1604,10 +1643,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57" s="3">
         <v>17</v>
@@ -1616,15 +1655,15 @@
         <v>14</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -1638,10 +1677,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C59" s="3">
         <v>2</v>
@@ -1655,10 +1694,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C60" s="3">
         <v>3</v>
@@ -1672,10 +1711,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C61" s="3">
         <v>4</v>
@@ -1689,10 +1728,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C62" s="3">
         <v>5</v>
@@ -1701,15 +1740,15 @@
         <v>14</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C63" s="3">
         <v>6</v>
@@ -1718,15 +1757,15 @@
         <v>14</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C64" s="3">
         <v>7</v>
@@ -1735,15 +1774,15 @@
         <v>14</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C65" s="3">
         <v>8</v>
@@ -1752,15 +1791,15 @@
         <v>14</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C66" s="3">
         <v>9</v>
@@ -1769,15 +1808,15 @@
         <v>14</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="3">
         <v>10</v>
@@ -1786,15 +1825,15 @@
         <v>14</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C68" s="3">
         <v>11</v>
@@ -1803,15 +1842,15 @@
         <v>14</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C69" s="3">
         <v>12</v>
@@ -1820,15 +1859,15 @@
         <v>14</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C70" s="3">
         <v>13</v>
@@ -1837,15 +1876,15 @@
         <v>14</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C71" s="3">
         <v>14</v>
@@ -1854,15 +1893,15 @@
         <v>14</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C72" s="3">
         <v>15</v>
@@ -1871,15 +1910,15 @@
         <v>14</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C73" s="3">
         <v>16</v>
@@ -1893,10 +1932,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C74" s="3">
         <v>17</v>
@@ -1905,15 +1944,15 @@
         <v>14</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
@@ -1927,10 +1966,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C76" s="3">
         <v>2</v>
@@ -1944,10 +1983,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C77" s="3">
         <v>3</v>
@@ -1961,10 +2000,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C78" s="3">
         <v>4</v>
@@ -1978,10 +2017,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C79" s="3">
         <v>5</v>
@@ -1990,15 +2029,15 @@
         <v>14</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C80" s="3">
         <v>6</v>
@@ -2007,15 +2046,15 @@
         <v>14</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C81" s="3">
         <v>7</v>
@@ -2024,15 +2063,15 @@
         <v>14</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C82" s="3">
         <v>8</v>
@@ -2041,15 +2080,15 @@
         <v>14</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C83" s="3">
         <v>9</v>
@@ -2058,15 +2097,15 @@
         <v>14</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C84" s="3">
         <v>10</v>
@@ -2075,15 +2114,15 @@
         <v>14</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C85" s="3">
         <v>11</v>
@@ -2092,15 +2131,15 @@
         <v>14</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C86" s="3">
         <v>12</v>
@@ -2109,15 +2148,15 @@
         <v>14</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C87" s="3">
         <v>13</v>
@@ -2126,15 +2165,15 @@
         <v>14</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C88" s="3">
         <v>14</v>
@@ -2143,15 +2182,15 @@
         <v>14</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C89" s="3">
         <v>15</v>
@@ -2160,15 +2199,15 @@
         <v>14</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C90" s="3">
         <v>16</v>
@@ -2182,10 +2221,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C91" s="3">
         <v>17</v>
@@ -2194,15 +2233,15 @@
         <v>14</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
@@ -2216,10 +2255,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C93" s="3">
         <v>2</v>
@@ -2233,10 +2272,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C94" s="3">
         <v>3</v>
@@ -2250,10 +2289,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C95" s="3">
         <v>4</v>
@@ -2267,10 +2306,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C96" s="3">
         <v>5</v>
@@ -2279,15 +2318,15 @@
         <v>14</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C97" s="3">
         <v>6</v>
@@ -2296,15 +2335,15 @@
         <v>14</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C98" s="3">
         <v>7</v>
@@ -2313,15 +2352,15 @@
         <v>14</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C99" s="3">
         <v>8</v>
@@ -2330,15 +2369,15 @@
         <v>14</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C100" s="3">
         <v>9</v>
@@ -2347,15 +2386,15 @@
         <v>14</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C101" s="3">
         <v>10</v>
@@ -2364,15 +2403,15 @@
         <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C102" s="3">
         <v>11</v>
@@ -2381,15 +2420,15 @@
         <v>14</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C103" s="3">
         <v>12</v>
@@ -2398,15 +2437,15 @@
         <v>14</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C104" s="3">
         <v>13</v>
@@ -2415,15 +2454,15 @@
         <v>14</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C105" s="3">
         <v>14</v>
@@ -2432,15 +2471,15 @@
         <v>14</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C106" s="3">
         <v>15</v>
@@ -2449,15 +2488,15 @@
         <v>14</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C107" s="3">
         <v>16</v>
@@ -2471,10 +2510,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C108" s="3">
         <v>17</v>
@@ -2483,15 +2522,15 @@
         <v>14</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
@@ -2505,10 +2544,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C110" s="3">
         <v>2</v>
@@ -2522,10 +2561,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C111" s="3">
         <v>3</v>
@@ -2539,10 +2578,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C112" s="3">
         <v>4</v>
@@ -2556,10 +2595,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C113" s="3">
         <v>5</v>
@@ -2568,15 +2607,15 @@
         <v>14</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C114" s="3">
         <v>6</v>
@@ -2585,15 +2624,15 @@
         <v>14</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C115" s="3">
         <v>7</v>
@@ -2602,15 +2641,15 @@
         <v>14</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C116" s="3">
         <v>8</v>
@@ -2619,15 +2658,15 @@
         <v>14</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C117" s="3">
         <v>9</v>
@@ -2636,15 +2675,15 @@
         <v>14</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C118" s="3">
         <v>10</v>
@@ -2653,15 +2692,15 @@
         <v>14</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C119" s="3">
         <v>11</v>
@@ -2670,15 +2709,15 @@
         <v>14</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C120" s="3">
         <v>12</v>
@@ -2687,15 +2726,15 @@
         <v>14</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C121" s="3">
         <v>13</v>
@@ -2704,15 +2743,15 @@
         <v>14</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C122" s="3">
         <v>14</v>
@@ -2721,15 +2760,15 @@
         <v>14</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C123" s="3">
         <v>15</v>
@@ -2738,15 +2777,15 @@
         <v>14</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C124" s="3">
         <v>16</v>
@@ -2760,10 +2799,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C125" s="3">
         <v>17</v>
@@ -2772,18 +2811,18 @@
         <v>14</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>14</v>
@@ -2794,7 +2833,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>13</v>
@@ -2811,7 +2850,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>13</v>
@@ -2828,7 +2867,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>13</v>
@@ -2845,13 +2884,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>14</v>
@@ -2862,10 +2901,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C131" s="3">
         <v>1</v>
@@ -2879,10 +2918,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C132" s="3">
         <v>2</v>
@@ -2896,10 +2935,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C133" s="3">
         <v>3</v>
@@ -2913,10 +2952,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C134" s="3">
         <v>4</v>
@@ -2930,10 +2969,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C135" s="3">
         <v>5</v>
@@ -2942,15 +2981,15 @@
         <v>14</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C136" s="3">
         <v>6</v>
@@ -2959,15 +2998,15 @@
         <v>14</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C137" s="3">
         <v>7</v>
@@ -2976,15 +3015,15 @@
         <v>14</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C138" s="3">
         <v>8</v>
@@ -2993,15 +3032,15 @@
         <v>14</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C139" s="3">
         <v>9</v>
@@ -3010,15 +3049,15 @@
         <v>14</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C140" s="3">
         <v>10</v>
@@ -3027,15 +3066,15 @@
         <v>14</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C141" s="3">
         <v>11</v>
@@ -3044,15 +3083,15 @@
         <v>14</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C142" s="3">
         <v>12</v>
@@ -3061,15 +3100,15 @@
         <v>14</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C143" s="3">
         <v>13</v>
@@ -3078,15 +3117,15 @@
         <v>14</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C144" s="3">
         <v>14</v>
@@ -3095,15 +3134,15 @@
         <v>14</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C145" s="3">
         <v>15</v>
@@ -3112,15 +3151,15 @@
         <v>14</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C146" s="3">
         <v>16</v>
@@ -3134,10 +3173,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C147" s="3">
         <v>17</v>
@@ -3146,15 +3185,15 @@
         <v>14</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C148" s="3">
         <v>1</v>
@@ -3168,10 +3207,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C149" s="3">
         <v>2</v>
@@ -3185,10 +3224,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C150" s="3">
         <v>3</v>
@@ -3202,10 +3241,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C151" s="3">
         <v>4</v>
@@ -3219,10 +3258,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C152" s="3">
         <v>5</v>
@@ -3231,15 +3270,15 @@
         <v>14</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C153" s="3">
         <v>6</v>
@@ -3248,15 +3287,15 @@
         <v>14</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C154" s="3">
         <v>7</v>
@@ -3265,15 +3304,15 @@
         <v>14</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C155" s="3">
         <v>8</v>
@@ -3282,15 +3321,15 @@
         <v>14</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C156" s="3">
         <v>9</v>
@@ -3299,15 +3338,15 @@
         <v>14</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C157" s="3">
         <v>10</v>
@@ -3316,15 +3355,15 @@
         <v>14</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C158" s="3">
         <v>11</v>
@@ -3333,15 +3372,15 @@
         <v>14</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C159" s="3">
         <v>12</v>
@@ -3350,15 +3389,15 @@
         <v>14</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C160" s="3">
         <v>13</v>
@@ -3367,15 +3406,15 @@
         <v>14</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C161" s="3">
         <v>14</v>
@@ -3384,15 +3423,15 @@
         <v>14</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C162" s="3">
         <v>15</v>
@@ -3401,15 +3440,15 @@
         <v>14</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C163" s="3">
         <v>16</v>
@@ -3423,10 +3462,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C164" s="3">
         <v>17</v>
@@ -3435,15 +3474,15 @@
         <v>14</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C165" s="3">
         <v>1</v>
@@ -3457,10 +3496,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C166" s="3">
         <v>2</v>
@@ -3474,10 +3513,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C167" s="3">
         <v>3</v>
@@ -3491,10 +3530,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C168" s="3">
         <v>4</v>
@@ -3508,10 +3547,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C169" s="3">
         <v>5</v>
@@ -3520,15 +3559,15 @@
         <v>14</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C170" s="3">
         <v>6</v>
@@ -3537,15 +3576,15 @@
         <v>14</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C171" s="3">
         <v>7</v>
@@ -3554,15 +3593,15 @@
         <v>14</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C172" s="3">
         <v>8</v>
@@ -3571,15 +3610,15 @@
         <v>14</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C173" s="3">
         <v>9</v>
@@ -3588,15 +3627,15 @@
         <v>14</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C174" s="3">
         <v>10</v>
@@ -3605,15 +3644,15 @@
         <v>14</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C175" s="3">
         <v>11</v>
@@ -3622,15 +3661,15 @@
         <v>14</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C176" s="3">
         <v>12</v>
@@ -3639,15 +3678,15 @@
         <v>14</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C177" s="3">
         <v>13</v>
@@ -3656,15 +3695,15 @@
         <v>14</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C178" s="3">
         <v>14</v>
@@ -3673,15 +3712,15 @@
         <v>14</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C179" s="3">
         <v>15</v>
@@ -3690,15 +3729,15 @@
         <v>14</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C180" s="3">
         <v>16</v>
@@ -3712,10 +3751,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C181" s="3">
         <v>17</v>
@@ -3724,15 +3763,15 @@
         <v>14</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C182" s="3">
         <v>1</v>
@@ -3746,10 +3785,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C183" s="3">
         <v>2</v>
@@ -3763,10 +3802,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C184" s="3">
         <v>3</v>
@@ -3780,10 +3819,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C185" s="3">
         <v>4</v>
@@ -3797,10 +3836,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C186" s="3">
         <v>5</v>
@@ -3809,15 +3848,15 @@
         <v>14</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C187" s="3">
         <v>6</v>
@@ -3826,15 +3865,15 @@
         <v>14</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C188" s="3">
         <v>7</v>
@@ -3843,15 +3882,15 @@
         <v>14</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C189" s="3">
         <v>8</v>
@@ -3860,15 +3899,15 @@
         <v>14</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C190" s="3">
         <v>9</v>
@@ -3877,15 +3916,15 @@
         <v>14</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C191" s="3">
         <v>10</v>
@@ -3894,15 +3933,15 @@
         <v>14</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C192" s="3">
         <v>11</v>
@@ -3911,15 +3950,15 @@
         <v>14</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C193" s="3">
         <v>12</v>
@@ -3928,15 +3967,15 @@
         <v>14</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C194" s="3">
         <v>13</v>
@@ -3945,15 +3984,15 @@
         <v>14</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C195" s="3">
         <v>14</v>
@@ -3962,15 +4001,15 @@
         <v>14</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C196" s="3">
         <v>15</v>
@@ -3979,15 +4018,15 @@
         <v>14</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C197" s="3">
         <v>16</v>
@@ -4001,10 +4040,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C198" s="3">
         <v>17</v>
@@ -4013,15 +4052,15 @@
         <v>14</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C199" s="3">
         <v>1</v>
@@ -4035,10 +4074,10 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C200" s="3">
         <v>2</v>
@@ -4052,10 +4091,10 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C201" s="3">
         <v>3</v>
@@ -4069,10 +4108,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C202" s="3">
         <v>4</v>
@@ -4086,10 +4125,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C203" s="3">
         <v>5</v>
@@ -4098,15 +4137,15 @@
         <v>14</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C204" s="3">
         <v>6</v>
@@ -4115,15 +4154,15 @@
         <v>14</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C205" s="3">
         <v>7</v>
@@ -4132,15 +4171,15 @@
         <v>14</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C206" s="3">
         <v>8</v>
@@ -4149,15 +4188,15 @@
         <v>14</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C207" s="3">
         <v>9</v>
@@ -4166,15 +4205,15 @@
         <v>14</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C208" s="3">
         <v>10</v>
@@ -4183,15 +4222,15 @@
         <v>14</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C209" s="3">
         <v>11</v>
@@ -4200,15 +4239,15 @@
         <v>14</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C210" s="3">
         <v>12</v>
@@ -4217,15 +4256,15 @@
         <v>14</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C211" s="3">
         <v>13</v>
@@ -4234,15 +4273,15 @@
         <v>14</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C212" s="3">
         <v>14</v>
@@ -4251,15 +4290,15 @@
         <v>14</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C213" s="3">
         <v>15</v>
@@ -4268,15 +4307,15 @@
         <v>14</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C214" s="3">
         <v>16</v>
@@ -4290,10 +4329,10 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C215" s="3">
         <v>17</v>
@@ -4302,15 +4341,15 @@
         <v>14</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C216" s="3">
         <v>1</v>
@@ -4324,10 +4363,10 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C217" s="3">
         <v>2</v>
@@ -4341,10 +4380,10 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C218" s="3">
         <v>3</v>
@@ -4358,10 +4397,10 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C219" s="3">
         <v>4</v>
@@ -4375,10 +4414,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C220" s="3">
         <v>5</v>
@@ -4387,15 +4426,15 @@
         <v>14</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C221" s="3">
         <v>6</v>
@@ -4404,15 +4443,15 @@
         <v>14</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C222" s="3">
         <v>7</v>
@@ -4421,15 +4460,15 @@
         <v>14</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C223" s="3">
         <v>8</v>
@@ -4438,15 +4477,15 @@
         <v>14</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C224" s="3">
         <v>9</v>
@@ -4455,15 +4494,15 @@
         <v>14</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C225" s="3">
         <v>10</v>
@@ -4472,15 +4511,15 @@
         <v>14</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C226" s="3">
         <v>11</v>
@@ -4489,15 +4528,15 @@
         <v>14</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C227" s="3">
         <v>12</v>
@@ -4506,15 +4545,15 @@
         <v>14</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C228" s="3">
         <v>13</v>
@@ -4523,15 +4562,15 @@
         <v>14</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C229" s="3">
         <v>14</v>
@@ -4540,15 +4579,15 @@
         <v>14</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C230" s="3">
         <v>15</v>
@@ -4557,15 +4596,15 @@
         <v>14</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C231" s="3">
         <v>16</v>
@@ -4579,10 +4618,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C232" s="3">
         <v>17</v>
@@ -4591,7 +4630,7 @@
         <v>14</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -4676,7 +4715,7 @@
         <v>23</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -4693,7 +4732,7 @@
         <v>23</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -4718,7 +4757,7 @@
         <v>7</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C240" s="1">
         <v>0</v>
@@ -4735,7 +4774,7 @@
         <v>7</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C241" s="1">
         <v>1</v>
@@ -4752,7 +4791,7 @@
         <v>7</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C242" s="1">
         <v>2</v>
@@ -4769,7 +4808,7 @@
         <v>7</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C243" s="1">
         <v>3</v>
@@ -4786,7 +4825,7 @@
         <v>7</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C244" s="1">
         <v>4</v>
@@ -4803,7 +4842,7 @@
         <v>7</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C245" s="1">
         <v>5</v>
@@ -4812,7 +4851,7 @@
         <v>23</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -4820,7 +4859,7 @@
         <v>7</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C246" s="1">
         <v>6</v>
@@ -4829,15 +4868,15 @@
         <v>23</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C247" s="1">
         <v>1</v>
@@ -4851,10 +4890,10 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C248" s="1">
         <v>2</v>
@@ -4868,10 +4907,10 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C249" s="1">
         <v>3</v>
@@ -4885,10 +4924,10 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C250" s="1">
         <v>4</v>
@@ -4902,10 +4941,10 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C251" s="1">
         <v>5</v>
@@ -4914,15 +4953,15 @@
         <v>23</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C252" s="1">
         <v>6</v>
@@ -4931,15 +4970,15 @@
         <v>23</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C253" s="1">
         <v>7</v>
@@ -4948,15 +4987,15 @@
         <v>23</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C254" s="1">
         <v>8</v>
@@ -4965,15 +5004,15 @@
         <v>23</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C255" s="1">
         <v>9</v>
@@ -4982,15 +5021,15 @@
         <v>23</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C256" s="1">
         <v>10</v>
@@ -4999,15 +5038,15 @@
         <v>23</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C257" s="1">
         <v>11</v>
@@ -5016,15 +5055,15 @@
         <v>23</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C258" s="1">
         <v>12</v>
@@ -5033,15 +5072,15 @@
         <v>23</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C259" s="1">
         <v>13</v>
@@ -5050,15 +5089,15 @@
         <v>23</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C260" s="1">
         <v>14</v>
@@ -5072,10 +5111,10 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C261" s="1">
         <v>15</v>
@@ -5084,15 +5123,15 @@
         <v>23</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C262" s="1">
         <v>16</v>
@@ -5106,10 +5145,10 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C263" s="1">
         <v>1</v>
@@ -5123,10 +5162,10 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C264" s="1">
         <v>2</v>
@@ -5140,10 +5179,10 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C265" s="1">
         <v>3</v>
@@ -5157,10 +5196,10 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C266" s="1">
         <v>4</v>
@@ -5174,10 +5213,10 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C267" s="1">
         <v>5</v>
@@ -5186,15 +5225,15 @@
         <v>23</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C268" s="1">
         <v>6</v>
@@ -5203,15 +5242,15 @@
         <v>23</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C269" s="1">
         <v>7</v>
@@ -5220,15 +5259,15 @@
         <v>23</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C270" s="1">
         <v>8</v>
@@ -5237,15 +5276,15 @@
         <v>23</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C271" s="1">
         <v>9</v>
@@ -5254,15 +5293,15 @@
         <v>23</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C272" s="1">
         <v>10</v>
@@ -5271,15 +5310,15 @@
         <v>23</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C273" s="1">
         <v>11</v>
@@ -5288,15 +5327,15 @@
         <v>23</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C274" s="1">
         <v>12</v>
@@ -5305,15 +5344,15 @@
         <v>23</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C275" s="1">
         <v>13</v>
@@ -5322,15 +5361,15 @@
         <v>23</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C276" s="1">
         <v>14</v>
@@ -5344,10 +5383,10 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C277" s="1">
         <v>15</v>
@@ -5356,15 +5395,15 @@
         <v>23</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C278" s="1">
         <v>16</v>
@@ -5378,10 +5417,10 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C279" s="1">
         <v>17</v>
@@ -5390,15 +5429,15 @@
         <v>23</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C280" s="1">
         <v>1</v>
@@ -5412,10 +5451,10 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C281" s="1">
         <v>2</v>
@@ -5429,10 +5468,10 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C282" s="1">
         <v>3</v>
@@ -5446,10 +5485,10 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C283" s="1">
         <v>4</v>
@@ -5463,10 +5502,10 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C284" s="1">
         <v>5</v>
@@ -5475,15 +5514,15 @@
         <v>23</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C285" s="1">
         <v>6</v>
@@ -5492,15 +5531,15 @@
         <v>23</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C286" s="1">
         <v>7</v>
@@ -5509,15 +5548,15 @@
         <v>23</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C287" s="1">
         <v>8</v>
@@ -5526,15 +5565,15 @@
         <v>23</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C288" s="1">
         <v>9</v>
@@ -5543,15 +5582,15 @@
         <v>23</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C289" s="1">
         <v>10</v>
@@ -5560,15 +5599,15 @@
         <v>23</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C290" s="1">
         <v>11</v>
@@ -5577,15 +5616,15 @@
         <v>23</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C291" s="1">
         <v>12</v>
@@ -5594,15 +5633,15 @@
         <v>23</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C292" s="1">
         <v>13</v>
@@ -5611,15 +5650,15 @@
         <v>23</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C293" s="1">
         <v>14</v>
@@ -5633,10 +5672,10 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C294" s="1">
         <v>15</v>
@@ -5645,15 +5684,15 @@
         <v>23</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C295" s="1">
         <v>16</v>
@@ -5667,10 +5706,10 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C296" s="1">
         <v>17</v>
@@ -5679,15 +5718,15 @@
         <v>23</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C297" s="1">
         <v>1</v>
@@ -5701,10 +5740,10 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C298" s="1">
         <v>2</v>
@@ -5718,10 +5757,10 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C299" s="1">
         <v>3</v>
@@ -5735,10 +5774,10 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C300" s="1">
         <v>4</v>
@@ -5752,10 +5791,10 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C301" s="1">
         <v>5</v>
@@ -5764,15 +5803,15 @@
         <v>23</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C302" s="1">
         <v>6</v>
@@ -5781,15 +5820,15 @@
         <v>23</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C303" s="1">
         <v>7</v>
@@ -5798,15 +5837,15 @@
         <v>23</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C304" s="1">
         <v>8</v>
@@ -5815,15 +5854,15 @@
         <v>23</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C305" s="1">
         <v>9</v>
@@ -5832,15 +5871,15 @@
         <v>23</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C306" s="1">
         <v>10</v>
@@ -5849,15 +5888,15 @@
         <v>23</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C307" s="1">
         <v>11</v>
@@ -5866,15 +5905,15 @@
         <v>23</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C308" s="1">
         <v>12</v>
@@ -5883,15 +5922,15 @@
         <v>23</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C309" s="1">
         <v>13</v>
@@ -5900,15 +5939,15 @@
         <v>23</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C310" s="1">
         <v>14</v>
@@ -5922,10 +5961,10 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C311" s="1">
         <v>15</v>
@@ -5934,15 +5973,15 @@
         <v>23</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C312" s="1">
         <v>16</v>
@@ -5956,10 +5995,10 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C313" s="1">
         <v>17</v>
@@ -5968,15 +6007,15 @@
         <v>23</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C314" s="1">
         <v>1</v>
@@ -5990,10 +6029,10 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C315" s="1">
         <v>2</v>
@@ -6007,10 +6046,10 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C316" s="1">
         <v>3</v>
@@ -6024,10 +6063,10 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C317" s="1">
         <v>4</v>
@@ -6041,10 +6080,10 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C318" s="1">
         <v>5</v>
@@ -6053,15 +6092,15 @@
         <v>23</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C319" s="1">
         <v>6</v>
@@ -6070,15 +6109,15 @@
         <v>23</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C320" s="1">
         <v>7</v>
@@ -6087,15 +6126,15 @@
         <v>23</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C321" s="1">
         <v>8</v>
@@ -6104,15 +6143,15 @@
         <v>23</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C322" s="1">
         <v>9</v>
@@ -6121,15 +6160,15 @@
         <v>23</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C323" s="1">
         <v>10</v>
@@ -6138,15 +6177,15 @@
         <v>23</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C324" s="1">
         <v>11</v>
@@ -6155,15 +6194,15 @@
         <v>23</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C325" s="1">
         <v>12</v>
@@ -6172,15 +6211,15 @@
         <v>23</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C326" s="1">
         <v>13</v>
@@ -6189,15 +6228,15 @@
         <v>23</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C327" s="1">
         <v>14</v>
@@ -6211,10 +6250,10 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C328" s="1">
         <v>15</v>
@@ -6223,15 +6262,15 @@
         <v>23</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C329" s="1">
         <v>16</v>
@@ -6245,10 +6284,10 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C330" s="1">
         <v>17</v>
@@ -6257,15 +6296,15 @@
         <v>23</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C331" s="1">
         <v>0</v>
@@ -6279,10 +6318,10 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C332" s="1">
         <v>1</v>
@@ -6296,10 +6335,10 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C333" s="1">
         <v>2</v>
@@ -6313,10 +6352,10 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C334" s="1">
         <v>3</v>
@@ -6330,10 +6369,10 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C335" s="1">
         <v>4</v>
@@ -6347,10 +6386,10 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C336" s="1">
         <v>5</v>
@@ -6359,15 +6398,15 @@
         <v>23</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C337" s="1">
         <v>6</v>
@@ -6376,15 +6415,15 @@
         <v>23</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C338" s="1">
         <v>1</v>
@@ -6398,10 +6437,10 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C339" s="1">
         <v>2</v>
@@ -6415,10 +6454,10 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C340" s="1">
         <v>3</v>
@@ -6432,10 +6471,10 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C341" s="1">
         <v>4</v>
@@ -6449,10 +6488,10 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C342" s="1">
         <v>5</v>
@@ -6461,15 +6500,15 @@
         <v>23</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C343" s="1">
         <v>6</v>
@@ -6478,15 +6517,15 @@
         <v>23</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C344" s="1">
         <v>7</v>
@@ -6495,15 +6534,15 @@
         <v>23</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C345" s="1">
         <v>8</v>
@@ -6512,15 +6551,15 @@
         <v>23</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C346" s="1">
         <v>9</v>
@@ -6529,15 +6568,15 @@
         <v>23</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C347" s="1">
         <v>10</v>
@@ -6546,15 +6585,15 @@
         <v>23</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C348" s="1">
         <v>11</v>
@@ -6563,15 +6602,15 @@
         <v>23</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C349" s="1">
         <v>12</v>
@@ -6580,15 +6619,15 @@
         <v>23</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C350" s="1">
         <v>13</v>
@@ -6597,15 +6636,15 @@
         <v>23</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C351" s="1">
         <v>14</v>
@@ -6619,10 +6658,10 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C352" s="1">
         <v>15</v>
@@ -6631,15 +6670,15 @@
         <v>23</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C353" s="1">
         <v>16</v>
@@ -6653,10 +6692,10 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C354" s="1">
         <v>17</v>
@@ -6665,15 +6704,15 @@
         <v>23</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C355" s="1">
         <v>1</v>
@@ -6687,10 +6726,10 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C356" s="1">
         <v>2</v>
@@ -6704,10 +6743,10 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C357" s="1">
         <v>3</v>
@@ -6721,10 +6760,10 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C358" s="1">
         <v>4</v>
@@ -6738,10 +6777,10 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C359" s="1">
         <v>5</v>
@@ -6750,15 +6789,15 @@
         <v>23</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C360" s="1">
         <v>6</v>
@@ -6767,15 +6806,15 @@
         <v>23</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C361" s="1">
         <v>7</v>
@@ -6784,15 +6823,15 @@
         <v>23</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C362" s="1">
         <v>8</v>
@@ -6801,15 +6840,15 @@
         <v>23</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C363" s="1">
         <v>9</v>
@@ -6818,15 +6857,15 @@
         <v>23</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C364" s="1">
         <v>10</v>
@@ -6835,15 +6874,15 @@
         <v>23</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C365" s="1">
         <v>11</v>
@@ -6852,15 +6891,15 @@
         <v>23</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C366" s="1">
         <v>12</v>
@@ -6869,15 +6908,15 @@
         <v>23</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C367" s="1">
         <v>13</v>
@@ -6886,15 +6925,15 @@
         <v>23</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C368" s="1">
         <v>14</v>
@@ -6908,10 +6947,10 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C369" s="1">
         <v>15</v>
@@ -6920,15 +6959,15 @@
         <v>23</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C370" s="1">
         <v>16</v>
@@ -6942,10 +6981,10 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C371" s="1">
         <v>17</v>
@@ -6954,15 +6993,15 @@
         <v>23</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C372" s="1">
         <v>1</v>
@@ -6976,10 +7015,10 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C373" s="1">
         <v>2</v>
@@ -6993,10 +7032,10 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C374" s="1">
         <v>3</v>
@@ -7010,10 +7049,10 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C375" s="1">
         <v>4</v>
@@ -7027,10 +7066,10 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C376" s="1">
         <v>5</v>
@@ -7039,15 +7078,15 @@
         <v>23</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C377" s="1">
         <v>6</v>
@@ -7056,15 +7095,15 @@
         <v>23</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C378" s="1">
         <v>7</v>
@@ -7073,15 +7112,15 @@
         <v>23</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C379" s="1">
         <v>8</v>
@@ -7090,15 +7129,15 @@
         <v>23</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C380" s="1">
         <v>9</v>
@@ -7107,15 +7146,15 @@
         <v>23</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C381" s="1">
         <v>10</v>
@@ -7124,15 +7163,15 @@
         <v>23</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C382" s="1">
         <v>11</v>
@@ -7141,15 +7180,15 @@
         <v>23</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C383" s="1">
         <v>12</v>
@@ -7158,15 +7197,15 @@
         <v>23</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C384" s="1">
         <v>13</v>
@@ -7175,15 +7214,15 @@
         <v>23</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C385" s="1">
         <v>14</v>
@@ -7197,10 +7236,10 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C386" s="1">
         <v>15</v>
@@ -7209,15 +7248,15 @@
         <v>23</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C387" s="1">
         <v>16</v>
@@ -7231,10 +7270,10 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C388" s="1">
         <v>17</v>
@@ -7243,15 +7282,15 @@
         <v>23</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C389" s="1">
         <v>1</v>
@@ -7265,10 +7304,10 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C390" s="1">
         <v>2</v>
@@ -7282,10 +7321,10 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C391" s="1">
         <v>3</v>
@@ -7299,10 +7338,10 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C392" s="1">
         <v>4</v>
@@ -7316,10 +7355,10 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C393" s="1">
         <v>5</v>
@@ -7328,15 +7367,15 @@
         <v>23</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C394" s="1">
         <v>6</v>
@@ -7345,15 +7384,15 @@
         <v>23</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C395" s="1">
         <v>7</v>
@@ -7362,15 +7401,15 @@
         <v>23</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C396" s="1">
         <v>8</v>
@@ -7379,15 +7418,15 @@
         <v>23</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C397" s="1">
         <v>9</v>
@@ -7396,15 +7435,15 @@
         <v>23</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C398" s="1">
         <v>10</v>
@@ -7413,15 +7452,15 @@
         <v>23</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C399" s="1">
         <v>11</v>
@@ -7430,15 +7469,15 @@
         <v>23</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C400" s="1">
         <v>12</v>
@@ -7447,15 +7486,15 @@
         <v>23</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C401" s="1">
         <v>13</v>
@@ -7464,15 +7503,15 @@
         <v>23</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C402" s="1">
         <v>14</v>
@@ -7486,10 +7525,10 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C403" s="1">
         <v>15</v>
@@ -7498,15 +7537,15 @@
         <v>23</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C404" s="1">
         <v>16</v>
@@ -7520,10 +7559,10 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C405" s="1">
         <v>17</v>
@@ -7532,15 +7571,15 @@
         <v>23</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C406" s="1">
         <v>1</v>
@@ -7554,10 +7593,10 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C407" s="1">
         <v>2</v>
@@ -7571,10 +7610,10 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C408" s="1">
         <v>3</v>
@@ -7588,10 +7627,10 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C409" s="1">
         <v>4</v>
@@ -7605,10 +7644,10 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C410" s="1">
         <v>5</v>
@@ -7617,15 +7656,15 @@
         <v>23</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C411" s="1">
         <v>6</v>
@@ -7634,15 +7673,15 @@
         <v>23</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C412" s="1">
         <v>7</v>
@@ -7651,15 +7690,15 @@
         <v>23</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C413" s="1">
         <v>8</v>
@@ -7668,15 +7707,15 @@
         <v>23</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C414" s="1">
         <v>9</v>
@@ -7685,15 +7724,15 @@
         <v>23</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C415" s="1">
         <v>10</v>
@@ -7702,15 +7741,15 @@
         <v>23</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C416" s="1">
         <v>11</v>
@@ -7719,15 +7758,15 @@
         <v>23</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C417" s="1">
         <v>12</v>
@@ -7736,15 +7775,15 @@
         <v>23</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C418" s="1">
         <v>13</v>
@@ -7753,15 +7792,15 @@
         <v>23</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C419" s="1">
         <v>14</v>
@@ -7775,10 +7814,10 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C420" s="1">
         <v>15</v>
@@ -7787,15 +7826,15 @@
         <v>23</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C421" s="1">
         <v>16</v>
@@ -7809,10 +7848,10 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C422" s="1">
         <v>17</v>
@@ -7821,15 +7860,15 @@
         <v>23</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C423" s="1">
         <v>1</v>
@@ -7843,10 +7882,10 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C424" s="1">
         <v>2</v>
@@ -7860,10 +7899,10 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C425" s="1">
         <v>3</v>
@@ -7877,10 +7916,10 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C426" s="1">
         <v>4</v>
@@ -7894,10 +7933,10 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C427" s="1">
         <v>5</v>
@@ -7906,15 +7945,15 @@
         <v>23</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C428" s="1">
         <v>6</v>
@@ -7923,15 +7962,15 @@
         <v>23</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C429" s="1">
         <v>7</v>
@@ -7940,15 +7979,15 @@
         <v>23</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C430" s="1">
         <v>8</v>
@@ -7957,15 +7996,15 @@
         <v>23</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C431" s="1">
         <v>9</v>
@@ -7974,15 +8013,15 @@
         <v>23</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C432" s="1">
         <v>10</v>
@@ -7991,15 +8030,15 @@
         <v>23</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C433" s="1">
         <v>11</v>
@@ -8008,15 +8047,15 @@
         <v>23</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C434" s="1">
         <v>12</v>
@@ -8025,15 +8064,15 @@
         <v>23</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C435" s="1">
         <v>13</v>
@@ -8042,15 +8081,15 @@
         <v>23</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C436" s="1">
         <v>14</v>
@@ -8064,10 +8103,10 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C437" s="1">
         <v>15</v>
@@ -8076,15 +8115,15 @@
         <v>23</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C438" s="1">
         <v>16</v>
@@ -8098,10 +8137,10 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C439" s="1">
         <v>17</v>
@@ -8110,7 +8149,347 @@
         <v>23</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/make-uniform/production/Dictionary.xlsx
+++ b/make-uniform/production/Dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="121">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -258,6 +258,135 @@
   </si>
   <si>
     <t>ten or more</t>
+  </si>
+  <si>
+    <t>Caltrain Pilot</t>
+  </si>
+  <si>
+    <t>ORIGIN_PLACE_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>orig_purp</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>work-related</t>
+  </si>
+  <si>
+    <t>college</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>eat out</t>
+  </si>
+  <si>
+    <t>social recreation</t>
+  </si>
+  <si>
+    <t>other maintenance</t>
+  </si>
+  <si>
+    <t>PLACEHOLDER</t>
+  </si>
+  <si>
+    <t>DESTINATION_PLACE_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>dest_purp</t>
+  </si>
+  <si>
+    <t>other discretionary</t>
+  </si>
+  <si>
+    <t>escorting</t>
+  </si>
+  <si>
+    <t>EMPLOYMENT_STATUS</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>worker_status</t>
+  </si>
+  <si>
+    <t>worker</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>non-worker</t>
+  </si>
+  <si>
+    <t>STUDENT_STATUS</t>
+  </si>
+  <si>
+    <t>student_status</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>non-student</t>
+  </si>
+  <si>
+    <t>BEEN_TO_WORK</t>
+  </si>
+  <si>
+    <t>at_work_prior_to_orig_purp</t>
+  </si>
+  <si>
+    <t>at work before surveyed trip</t>
+  </si>
+  <si>
+    <t>not at work before surveyed trip</t>
+  </si>
+  <si>
+    <t>GOING_TO_WORK</t>
+  </si>
+  <si>
+    <t>at_work_after_dest_purp</t>
+  </si>
+  <si>
+    <t>at work after surveyed trip</t>
+  </si>
+  <si>
+    <t>not at work after surveyed trip</t>
+  </si>
+  <si>
+    <t>BEEN_2SCHOOL_TODAY</t>
+  </si>
+  <si>
+    <t>at_school_prior_to_orig_purp</t>
+  </si>
+  <si>
+    <t>at_school_after_dest_purp</t>
+  </si>
+  <si>
+    <t>at school before surveyed trip</t>
+  </si>
+  <si>
+    <t>not at school before surveyed trip</t>
+  </si>
+  <si>
+    <t>at school after surveyed trip</t>
+  </si>
+  <si>
+    <t>not at school after surveyed trip</t>
+  </si>
+  <si>
+    <t>WILL_GO2SCHOOL_TODAY</t>
   </si>
 </sst>
 </file>
@@ -675,18 +804,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E459"/>
+  <dimension ref="A1:E525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A430" sqref="A430"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="24" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -759,7 +890,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -776,7 +907,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -793,7 +924,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -810,7 +941,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -827,7 +958,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -844,7 +975,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -861,7 +992,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -878,7 +1009,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -895,7 +1026,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -912,7 +1043,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -929,7 +1060,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -946,16 +1077,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>4</v>
@@ -963,16 +1094,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>4</v>
@@ -980,16 +1111,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>4</v>
@@ -997,10 +1128,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -1014,16 +1145,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>4</v>
@@ -1031,10 +1162,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1048,7 +1179,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>51</v>
@@ -1065,16 +1196,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>4</v>
@@ -1082,10 +1213,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1099,16 +1230,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>4</v>
@@ -1116,7 +1247,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>47</v>
@@ -1133,10 +1264,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1150,10 +1281,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1167,10 +1298,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1184,36 +1315,36 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1224,13 +1355,13 @@
         <v>13</v>
       </c>
       <c r="C32" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1241,13 +1372,13 @@
         <v>13</v>
       </c>
       <c r="C33" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1258,13 +1389,13 @@
         <v>13</v>
       </c>
       <c r="C34" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1272,50 +1403,50 @@
         <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="1">
         <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>30</v>
+      <c r="C36" s="1">
+        <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1325,14 +1456,14 @@
       <c r="B38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="3">
-        <v>2</v>
+      <c r="C38" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1343,13 +1474,13 @@
         <v>13</v>
       </c>
       <c r="C39" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1359,48 +1490,48 @@
       <c r="B40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>31</v>
+      <c r="C40" s="3">
+        <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C41" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="3">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1411,13 +1542,13 @@
         <v>44</v>
       </c>
       <c r="C43" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1428,13 +1559,13 @@
         <v>44</v>
       </c>
       <c r="C44" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1445,13 +1576,13 @@
         <v>44</v>
       </c>
       <c r="C45" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1462,13 +1593,13 @@
         <v>44</v>
       </c>
       <c r="C46" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1479,13 +1610,13 @@
         <v>44</v>
       </c>
       <c r="C47" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1496,13 +1627,13 @@
         <v>44</v>
       </c>
       <c r="C48" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1513,13 +1644,13 @@
         <v>44</v>
       </c>
       <c r="C49" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1530,13 +1661,13 @@
         <v>44</v>
       </c>
       <c r="C50" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1547,13 +1678,13 @@
         <v>44</v>
       </c>
       <c r="C51" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1564,13 +1695,13 @@
         <v>44</v>
       </c>
       <c r="C52" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1581,13 +1712,13 @@
         <v>44</v>
       </c>
       <c r="C53" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1598,13 +1729,13 @@
         <v>44</v>
       </c>
       <c r="C54" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1615,13 +1746,13 @@
         <v>44</v>
       </c>
       <c r="C55" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1632,13 +1763,13 @@
         <v>44</v>
       </c>
       <c r="C56" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1649,132 +1780,132 @@
         <v>44</v>
       </c>
       <c r="C57" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C58" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C59" s="3">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C60" s="3">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C61" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C62" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C63" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C64" s="3">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1785,13 +1916,13 @@
         <v>48</v>
       </c>
       <c r="C65" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1802,13 +1933,13 @@
         <v>48</v>
       </c>
       <c r="C66" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1819,13 +1950,13 @@
         <v>48</v>
       </c>
       <c r="C67" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1836,13 +1967,13 @@
         <v>48</v>
       </c>
       <c r="C68" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1853,13 +1984,13 @@
         <v>48</v>
       </c>
       <c r="C69" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1870,13 +2001,13 @@
         <v>48</v>
       </c>
       <c r="C70" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1887,13 +2018,13 @@
         <v>48</v>
       </c>
       <c r="C71" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1904,13 +2035,13 @@
         <v>48</v>
       </c>
       <c r="C72" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1921,13 +2052,13 @@
         <v>48</v>
       </c>
       <c r="C73" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1938,132 +2069,132 @@
         <v>48</v>
       </c>
       <c r="C74" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C75" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C76" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C77" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C78" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C79" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C80" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C81" s="3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2074,13 +2205,13 @@
         <v>52</v>
       </c>
       <c r="C82" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2091,13 +2222,13 @@
         <v>52</v>
       </c>
       <c r="C83" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2108,13 +2239,13 @@
         <v>52</v>
       </c>
       <c r="C84" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2125,13 +2256,13 @@
         <v>52</v>
       </c>
       <c r="C85" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2142,13 +2273,13 @@
         <v>52</v>
       </c>
       <c r="C86" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2159,13 +2290,13 @@
         <v>52</v>
       </c>
       <c r="C87" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2176,13 +2307,13 @@
         <v>52</v>
       </c>
       <c r="C88" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2193,13 +2324,13 @@
         <v>52</v>
       </c>
       <c r="C89" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2210,13 +2341,13 @@
         <v>52</v>
       </c>
       <c r="C90" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2227,132 +2358,132 @@
         <v>52</v>
       </c>
       <c r="C91" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C92" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C93" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C94" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C95" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C96" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C97" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C98" s="3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2363,13 +2494,13 @@
         <v>52</v>
       </c>
       <c r="C99" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2380,13 +2511,13 @@
         <v>52</v>
       </c>
       <c r="C100" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2397,13 +2528,13 @@
         <v>52</v>
       </c>
       <c r="C101" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2414,13 +2545,13 @@
         <v>52</v>
       </c>
       <c r="C102" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2431,13 +2562,13 @@
         <v>52</v>
       </c>
       <c r="C103" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2448,13 +2579,13 @@
         <v>52</v>
       </c>
       <c r="C104" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2465,13 +2596,13 @@
         <v>52</v>
       </c>
       <c r="C105" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2482,13 +2613,13 @@
         <v>52</v>
       </c>
       <c r="C106" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2499,13 +2630,13 @@
         <v>52</v>
       </c>
       <c r="C107" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2516,132 +2647,132 @@
         <v>52</v>
       </c>
       <c r="C108" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C109" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C110" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C111" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C112" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C113" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C114" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C115" s="3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -2652,13 +2783,13 @@
         <v>52</v>
       </c>
       <c r="C116" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -2669,13 +2800,13 @@
         <v>52</v>
       </c>
       <c r="C117" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -2686,13 +2817,13 @@
         <v>52</v>
       </c>
       <c r="C118" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -2703,13 +2834,13 @@
         <v>52</v>
       </c>
       <c r="C119" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -2720,13 +2851,13 @@
         <v>52</v>
       </c>
       <c r="C120" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -2737,13 +2868,13 @@
         <v>52</v>
       </c>
       <c r="C121" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -2754,13 +2885,13 @@
         <v>52</v>
       </c>
       <c r="C122" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -2771,13 +2902,13 @@
         <v>52</v>
       </c>
       <c r="C123" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -2788,13 +2919,13 @@
         <v>52</v>
       </c>
       <c r="C124" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -2805,217 +2936,217 @@
         <v>52</v>
       </c>
       <c r="C125" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>30</v>
+        <v>52</v>
+      </c>
+      <c r="C126" s="3">
+        <v>11</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C127" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C128" s="3">
         <v>13</v>
       </c>
-      <c r="C128" s="3">
-        <v>2</v>
-      </c>
       <c r="D128" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C129" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>31</v>
+        <v>52</v>
+      </c>
+      <c r="C130" s="3">
+        <v>15</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C131" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C132" s="3">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C133" s="3">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C134" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C135" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C136" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C137" s="3">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -3026,13 +3157,13 @@
         <v>48</v>
       </c>
       <c r="C138" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -3043,13 +3174,13 @@
         <v>48</v>
       </c>
       <c r="C139" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -3060,13 +3191,13 @@
         <v>48</v>
       </c>
       <c r="C140" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -3077,13 +3208,13 @@
         <v>48</v>
       </c>
       <c r="C141" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3094,13 +3225,13 @@
         <v>48</v>
       </c>
       <c r="C142" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -3111,13 +3242,13 @@
         <v>48</v>
       </c>
       <c r="C143" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -3128,13 +3259,13 @@
         <v>48</v>
       </c>
       <c r="C144" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -3145,13 +3276,13 @@
         <v>48</v>
       </c>
       <c r="C145" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -3162,13 +3293,13 @@
         <v>48</v>
       </c>
       <c r="C146" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -3179,132 +3310,132 @@
         <v>48</v>
       </c>
       <c r="C147" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C148" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C149" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C150" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C151" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C152" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C153" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C154" s="3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -3315,13 +3446,13 @@
         <v>43</v>
       </c>
       <c r="C155" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -3332,13 +3463,13 @@
         <v>43</v>
       </c>
       <c r="C156" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3349,13 +3480,13 @@
         <v>43</v>
       </c>
       <c r="C157" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -3366,13 +3497,13 @@
         <v>43</v>
       </c>
       <c r="C158" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3383,13 +3514,13 @@
         <v>43</v>
       </c>
       <c r="C159" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -3400,13 +3531,13 @@
         <v>43</v>
       </c>
       <c r="C160" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -3417,13 +3548,13 @@
         <v>43</v>
       </c>
       <c r="C161" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -3434,13 +3565,13 @@
         <v>43</v>
       </c>
       <c r="C162" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -3451,13 +3582,13 @@
         <v>43</v>
       </c>
       <c r="C163" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -3468,132 +3599,132 @@
         <v>43</v>
       </c>
       <c r="C164" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C165" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C166" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C167" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C168" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C169" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C170" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C171" s="3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -3604,13 +3735,13 @@
         <v>48</v>
       </c>
       <c r="C172" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -3621,13 +3752,13 @@
         <v>48</v>
       </c>
       <c r="C173" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -3638,13 +3769,13 @@
         <v>48</v>
       </c>
       <c r="C174" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -3655,13 +3786,13 @@
         <v>48</v>
       </c>
       <c r="C175" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -3672,13 +3803,13 @@
         <v>48</v>
       </c>
       <c r="C176" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -3689,13 +3820,13 @@
         <v>48</v>
       </c>
       <c r="C177" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -3706,13 +3837,13 @@
         <v>48</v>
       </c>
       <c r="C178" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -3723,13 +3854,13 @@
         <v>48</v>
       </c>
       <c r="C179" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -3740,13 +3871,13 @@
         <v>48</v>
       </c>
       <c r="C180" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -3757,132 +3888,132 @@
         <v>48</v>
       </c>
       <c r="C181" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C182" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C183" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C184" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C185" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C186" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C187" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C188" s="3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -3893,13 +4024,13 @@
         <v>48</v>
       </c>
       <c r="C189" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -3910,13 +4041,13 @@
         <v>48</v>
       </c>
       <c r="C190" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -3927,13 +4058,13 @@
         <v>48</v>
       </c>
       <c r="C191" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -3944,13 +4075,13 @@
         <v>48</v>
       </c>
       <c r="C192" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -3961,13 +4092,13 @@
         <v>48</v>
       </c>
       <c r="C193" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -3978,13 +4109,13 @@
         <v>48</v>
       </c>
       <c r="C194" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -3995,13 +4126,13 @@
         <v>48</v>
       </c>
       <c r="C195" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -4012,13 +4143,13 @@
         <v>48</v>
       </c>
       <c r="C196" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -4029,13 +4160,13 @@
         <v>48</v>
       </c>
       <c r="C197" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -4046,132 +4177,132 @@
         <v>48</v>
       </c>
       <c r="C198" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C199" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C200" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C201" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C202" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C203" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C204" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C205" s="3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -4182,13 +4313,13 @@
         <v>44</v>
       </c>
       <c r="C206" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -4199,13 +4330,13 @@
         <v>44</v>
       </c>
       <c r="C207" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -4216,13 +4347,13 @@
         <v>44</v>
       </c>
       <c r="C208" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -4233,13 +4364,13 @@
         <v>44</v>
       </c>
       <c r="C209" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -4250,13 +4381,13 @@
         <v>44</v>
       </c>
       <c r="C210" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -4267,13 +4398,13 @@
         <v>44</v>
       </c>
       <c r="C211" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -4284,13 +4415,13 @@
         <v>44</v>
       </c>
       <c r="C212" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -4301,13 +4432,13 @@
         <v>44</v>
       </c>
       <c r="C213" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -4318,13 +4449,13 @@
         <v>44</v>
       </c>
       <c r="C214" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -4335,132 +4466,132 @@
         <v>44</v>
       </c>
       <c r="C215" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C216" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C217" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C218" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C219" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C220" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C221" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C222" s="3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -4471,13 +4602,13 @@
         <v>52</v>
       </c>
       <c r="C223" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -4488,13 +4619,13 @@
         <v>52</v>
       </c>
       <c r="C224" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -4505,13 +4636,13 @@
         <v>52</v>
       </c>
       <c r="C225" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -4522,13 +4653,13 @@
         <v>52</v>
       </c>
       <c r="C226" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -4539,13 +4670,13 @@
         <v>52</v>
       </c>
       <c r="C227" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -4556,13 +4687,13 @@
         <v>52</v>
       </c>
       <c r="C228" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -4573,13 +4704,13 @@
         <v>52</v>
       </c>
       <c r="C229" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -4590,13 +4721,13 @@
         <v>52</v>
       </c>
       <c r="C230" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -4607,13 +4738,13 @@
         <v>52</v>
       </c>
       <c r="C231" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -4624,370 +4755,370 @@
         <v>52</v>
       </c>
       <c r="C232" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C233" s="1">
-        <v>2</v>
+        <v>52</v>
+      </c>
+      <c r="C233" s="3">
+        <v>11</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C234" s="1">
-        <v>3</v>
+        <v>52</v>
+      </c>
+      <c r="C234" s="3">
+        <v>12</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C235" s="1">
-        <v>4</v>
+        <v>52</v>
+      </c>
+      <c r="C235" s="3">
+        <v>13</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C236" s="1">
-        <v>5</v>
+        <v>52</v>
+      </c>
+      <c r="C236" s="3">
+        <v>14</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C237" s="1">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="C237" s="3">
+        <v>15</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C238" s="1">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="C238" s="3">
+        <v>16</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
+      </c>
+      <c r="C239" s="3">
+        <v>17</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="C240" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="C241" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="C242" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="C243" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="C244" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C245" s="1">
         <v>7</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C245" s="1">
-        <v>5</v>
-      </c>
       <c r="D245" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C246" s="1">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C247" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C248" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C249" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C250" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C251" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C252" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C253" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -4998,13 +5129,13 @@
         <v>45</v>
       </c>
       <c r="C254" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -5015,13 +5146,13 @@
         <v>45</v>
       </c>
       <c r="C255" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -5032,13 +5163,13 @@
         <v>45</v>
       </c>
       <c r="C256" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -5049,13 +5180,13 @@
         <v>45</v>
       </c>
       <c r="C257" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -5066,13 +5197,13 @@
         <v>45</v>
       </c>
       <c r="C258" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -5083,13 +5214,13 @@
         <v>45</v>
       </c>
       <c r="C259" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -5100,13 +5231,13 @@
         <v>45</v>
       </c>
       <c r="C260" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -5117,13 +5248,13 @@
         <v>45</v>
       </c>
       <c r="C261" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -5134,251 +5265,251 @@
         <v>45</v>
       </c>
       <c r="C262" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C263" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C264" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C265" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C266" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C267" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C268" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C269" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C270" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C271" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C272" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C273" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C274" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C275" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C276" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -5389,13 +5520,13 @@
         <v>49</v>
       </c>
       <c r="C277" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -5406,13 +5537,13 @@
         <v>49</v>
       </c>
       <c r="C278" s="1">
+        <v>2</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E278" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -5423,251 +5554,251 @@
         <v>49</v>
       </c>
       <c r="C279" s="1">
+        <v>3</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E279" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C280" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C281" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C282" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C283" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C284" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C285" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C286" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C287" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C288" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C289" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C290" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C291" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C292" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C293" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -5678,13 +5809,13 @@
         <v>53</v>
       </c>
       <c r="C294" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -5695,13 +5826,13 @@
         <v>53</v>
       </c>
       <c r="C295" s="1">
+        <v>2</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E295" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -5712,251 +5843,251 @@
         <v>53</v>
       </c>
       <c r="C296" s="1">
+        <v>3</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E296" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C297" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C298" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C299" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C300" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C301" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C302" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C303" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C304" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C305" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C306" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C307" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C308" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C309" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C310" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -5967,13 +6098,13 @@
         <v>53</v>
       </c>
       <c r="C311" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -5984,13 +6115,13 @@
         <v>53</v>
       </c>
       <c r="C312" s="1">
+        <v>2</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E312" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E312" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -6001,251 +6132,251 @@
         <v>53</v>
       </c>
       <c r="C313" s="1">
+        <v>3</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E313" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D313" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C314" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C315" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C316" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C317" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C318" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C319" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C320" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C321" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C322" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C323" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C324" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C325" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C326" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C327" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -6256,13 +6387,13 @@
         <v>53</v>
       </c>
       <c r="C328" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -6273,13 +6404,13 @@
         <v>53</v>
       </c>
       <c r="C329" s="1">
+        <v>2</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E329" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E329" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -6290,194 +6421,194 @@
         <v>53</v>
       </c>
       <c r="C330" s="1">
+        <v>3</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E330" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D330" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C331" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C332" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C333" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C334" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C335" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C336" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C337" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C338" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C339" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C340" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C341" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>23</v>
@@ -6488,172 +6619,172 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C342" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C343" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C344" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C345" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C346" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C347" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C348" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C349" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C350" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C351" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -6664,13 +6795,13 @@
         <v>49</v>
       </c>
       <c r="C352" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -6681,13 +6812,13 @@
         <v>49</v>
       </c>
       <c r="C353" s="1">
+        <v>2</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E353" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -6698,251 +6829,251 @@
         <v>49</v>
       </c>
       <c r="C354" s="1">
+        <v>3</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E354" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D354" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E354" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C355" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C356" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C357" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C358" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C359" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C360" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C361" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C362" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C363" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C364" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C365" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C366" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C367" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C368" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -6953,13 +7084,13 @@
         <v>43</v>
       </c>
       <c r="C369" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -6970,13 +7101,13 @@
         <v>43</v>
       </c>
       <c r="C370" s="1">
+        <v>2</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E370" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D370" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E370" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -6987,251 +7118,251 @@
         <v>43</v>
       </c>
       <c r="C371" s="1">
+        <v>3</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E371" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D371" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E371" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C372" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C373" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D373" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C374" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D374" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C375" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C376" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C377" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C378" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C379" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C380" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C381" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C382" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C383" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C384" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C385" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
@@ -7242,13 +7373,13 @@
         <v>49</v>
       </c>
       <c r="C386" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
@@ -7259,13 +7390,13 @@
         <v>49</v>
       </c>
       <c r="C387" s="1">
+        <v>2</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E387" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D387" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E387" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -7276,251 +7407,251 @@
         <v>49</v>
       </c>
       <c r="C388" s="1">
+        <v>3</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E388" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D388" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E388" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C389" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D389" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C390" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C391" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D391" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C392" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C393" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D393" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C394" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D394" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C395" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D395" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C396" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C397" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C398" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D398" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C399" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D399" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C400" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D400" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C401" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D401" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C402" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D402" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -7531,13 +7662,13 @@
         <v>49</v>
       </c>
       <c r="C403" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D403" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
@@ -7548,13 +7679,13 @@
         <v>49</v>
       </c>
       <c r="C404" s="1">
+        <v>2</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E404" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D404" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E404" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
@@ -7565,251 +7696,251 @@
         <v>49</v>
       </c>
       <c r="C405" s="1">
+        <v>3</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E405" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D405" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E405" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C406" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D406" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C407" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D407" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C408" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D408" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C409" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D409" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C410" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D410" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C411" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D411" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C412" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D412" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C413" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D413" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C414" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D414" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C415" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D415" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C416" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D416" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C417" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D417" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C418" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D418" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C419" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D419" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
@@ -7820,13 +7951,13 @@
         <v>45</v>
       </c>
       <c r="C420" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D420" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -7837,13 +7968,13 @@
         <v>45</v>
       </c>
       <c r="C421" s="1">
+        <v>2</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E421" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D421" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E421" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -7854,251 +7985,251 @@
         <v>45</v>
       </c>
       <c r="C422" s="1">
+        <v>3</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E422" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D422" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E422" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C423" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D423" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C424" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D424" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C425" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D425" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C426" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D426" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E426" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C427" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C428" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D428" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C429" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C430" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D430" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C431" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C432" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D432" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C433" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D433" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C434" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C435" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D435" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C436" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D436" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -8109,13 +8240,13 @@
         <v>53</v>
       </c>
       <c r="C437" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D437" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -8126,13 +8257,13 @@
         <v>53</v>
       </c>
       <c r="C438" s="1">
+        <v>2</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E438" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D438" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E438" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
@@ -8143,353 +8274,1475 @@
         <v>53</v>
       </c>
       <c r="C439" s="1">
+        <v>3</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E439" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D439" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E439" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
+      </c>
+      <c r="C440" s="1">
+        <v>4</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
+      </c>
+      <c r="C441" s="1">
+        <v>5</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C442" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
+      </c>
+      <c r="C442" s="1">
+        <v>6</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C443" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
+      </c>
+      <c r="C443" s="1">
+        <v>7</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C444" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
+      </c>
+      <c r="C444" s="1">
+        <v>8</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C445" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
+      </c>
+      <c r="C445" s="1">
+        <v>9</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
+      </c>
+      <c r="C446" s="1">
+        <v>10</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C447" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
+      </c>
+      <c r="C447" s="1">
+        <v>11</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
+      </c>
+      <c r="C448" s="1">
+        <v>12</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C449" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
+      </c>
+      <c r="C449" s="1">
+        <v>13</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
+      </c>
+      <c r="C450" s="1">
+        <v>14</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C451" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
+      </c>
+      <c r="C451" s="1">
+        <v>15</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
+      </c>
+      <c r="C452" s="1">
+        <v>16</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C453" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
+      </c>
+      <c r="C453" s="1">
+        <v>17</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D454" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D455" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E455" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D456" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E456" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D457" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D458" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D459" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E459" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E463" s="1" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C484" s="1">
+        <v>1</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C485" s="1">
+        <v>2</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C486" s="1">
+        <v>3</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C487" s="1">
+        <v>4</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C488" s="1">
+        <v>5</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C489" s="1">
+        <v>6</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C490" s="1">
+        <v>7</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C491" s="1">
+        <v>8</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C492" s="1">
+        <v>9</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C493" s="1">
+        <v>10</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C494" s="1">
+        <v>11</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C495" s="1">
+        <v>12</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C496" s="1">
+        <v>13</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C497" s="1">
+        <v>14</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C498" s="1">
+        <v>15</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C499" s="1">
+        <v>1</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C500" s="1">
+        <v>2</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C501" s="1">
+        <v>3</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C502" s="1">
+        <v>4</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C503" s="1">
+        <v>5</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C504" s="1">
+        <v>6</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C505" s="1">
+        <v>7</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C506" s="1">
+        <v>8</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C507" s="1">
+        <v>9</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C508" s="1">
+        <v>10</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C509" s="1">
+        <v>11</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C510" s="1">
+        <v>12</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C511" s="1">
+        <v>13</v>
+      </c>
+      <c r="D511" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C512" s="1">
+        <v>14</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C513" s="1">
+        <v>15</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D519" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/make-uniform/production/Dictionary.xlsx
+++ b/make-uniform/production/Dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="161">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -387,6 +387,126 @@
   </si>
   <si>
     <t>WILL_GO2SCHOOL_TODAY</t>
+  </si>
+  <si>
+    <t>HOME_LAT</t>
+  </si>
+  <si>
+    <t>HOME_LON</t>
+  </si>
+  <si>
+    <t>WORKP_LAT</t>
+  </si>
+  <si>
+    <t>workplace_lat</t>
+  </si>
+  <si>
+    <t>home_lat</t>
+  </si>
+  <si>
+    <t>home_lon</t>
+  </si>
+  <si>
+    <t>WORKP_LON</t>
+  </si>
+  <si>
+    <t>workplace_lon</t>
+  </si>
+  <si>
+    <t>SCHOOL_LAT</t>
+  </si>
+  <si>
+    <t>school_lat</t>
+  </si>
+  <si>
+    <t>SCHOOL_LON</t>
+  </si>
+  <si>
+    <t>school_lon</t>
+  </si>
+  <si>
+    <t>DESTINATION_LAT</t>
+  </si>
+  <si>
+    <t>dest_lat</t>
+  </si>
+  <si>
+    <t>DESTINATION_LON</t>
+  </si>
+  <si>
+    <t>dest_lon</t>
+  </si>
+  <si>
+    <t>ORIGIN_LAT</t>
+  </si>
+  <si>
+    <t>orig_lat</t>
+  </si>
+  <si>
+    <t>ORIGIN_LON</t>
+  </si>
+  <si>
+    <t>orig_lon</t>
+  </si>
+  <si>
+    <t>ENTER_STATION_LAT</t>
+  </si>
+  <si>
+    <t>survey_board_lat</t>
+  </si>
+  <si>
+    <t>survey_board_lon</t>
+  </si>
+  <si>
+    <t>ENTER_STATION_LON</t>
+  </si>
+  <si>
+    <t>ENTER_STATION</t>
+  </si>
+  <si>
+    <t>survey_board_name</t>
+  </si>
+  <si>
+    <t>EXIT_STATION_LAT</t>
+  </si>
+  <si>
+    <t>EXIT_STATION_LON</t>
+  </si>
+  <si>
+    <t>EXIT_STATION</t>
+  </si>
+  <si>
+    <t>survey_alight_lat</t>
+  </si>
+  <si>
+    <t>survey_alight_lon</t>
+  </si>
+  <si>
+    <t>survey_alight_name</t>
+  </si>
+  <si>
+    <t>EGRESS_LOC_LAT_TRANSFER_TO_LAST</t>
+  </si>
+  <si>
+    <t>last_alight_lat</t>
+  </si>
+  <si>
+    <t>EGRESS_LOC_LON_TRANSFER_TO_LAST</t>
+  </si>
+  <si>
+    <t>last_alight_lon</t>
+  </si>
+  <si>
+    <t>ACCESS_LOC_LAT_TRANSFER_FROM_1ST</t>
+  </si>
+  <si>
+    <t>first_board_lat</t>
+  </si>
+  <si>
+    <t>ACCESS_LOC_LON_TRANSFER_FROM_1ST</t>
+  </si>
+  <si>
+    <t>first_board_lon</t>
   </si>
 </sst>
 </file>
@@ -804,17 +924,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E525"/>
+  <dimension ref="A1:E545"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A518" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A546" sqref="A546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.625" style="1" customWidth="1"/>
@@ -9743,6 +9863,346 @@
       </c>
       <c r="E525" s="1" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/make-uniform/production/Dictionary.xlsx
+++ b/make-uniform/production/Dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="182">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -507,6 +507,69 @@
   </si>
   <si>
     <t>first_board_lon</t>
+  </si>
+  <si>
+    <t>onoff_enter_station</t>
+  </si>
+  <si>
+    <t>onoff_exit_station</t>
+  </si>
+  <si>
+    <t>TRANSFERS_FROM_CODE</t>
+  </si>
+  <si>
+    <t>3+</t>
+  </si>
+  <si>
+    <t>origin_survey_board_transfers</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>three or more</t>
+  </si>
+  <si>
+    <t>TRANSFERS_TO_CODE</t>
+  </si>
+  <si>
+    <t>TRANSFER_FROM_1ST</t>
+  </si>
+  <si>
+    <t>first_route_before_survey_board</t>
+  </si>
+  <si>
+    <t>TRANSFER_FROM_2ND</t>
+  </si>
+  <si>
+    <t>second_route_before_survey_board</t>
+  </si>
+  <si>
+    <t>TRANSFER_FROM_3RD</t>
+  </si>
+  <si>
+    <t>third_route_before_survey_board</t>
+  </si>
+  <si>
+    <t>TRANSFER_TO_1ST</t>
+  </si>
+  <si>
+    <t>first_route_after_survey_alight</t>
+  </si>
+  <si>
+    <t>survey_alight_dest_transfers</t>
+  </si>
+  <si>
+    <t>TRANSFER_TO_2ND</t>
+  </si>
+  <si>
+    <t>TRANSFER_TO_3RD</t>
+  </si>
+  <si>
+    <t>second_route_after_survey_alight</t>
+  </si>
+  <si>
+    <t>third_route_after_survey_alight</t>
   </si>
 </sst>
 </file>
@@ -924,11 +987,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E545"/>
+  <dimension ref="A1:E561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A518" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A546" sqref="A546"/>
+      <pane ySplit="1" topLeftCell="A532" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A562" sqref="A562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -936,7 +999,7 @@
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10202,6 +10265,278 @@
         <v>160</v>
       </c>
       <c r="E545" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C548" s="1">
+        <v>0</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C549" s="1">
+        <v>1</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C550" s="1">
+        <v>2</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C552" s="1">
+        <v>0</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C553" s="1">
+        <v>1</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C554" s="1">
+        <v>2</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C555" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E561" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/make-uniform/production/Dictionary.xlsx
+++ b/make-uniform/production/Dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="190">
   <si>
     <t>Survey_Variable</t>
   </si>
@@ -570,6 +570,30 @@
   </si>
   <si>
     <t>third_route_after_survey_alight</t>
+  </si>
+  <si>
+    <t>ACCESS_MODE_CODE</t>
+  </si>
+  <si>
+    <t>access_mode</t>
+  </si>
+  <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t>bike</t>
+  </si>
+  <si>
+    <t>pnr</t>
+  </si>
+  <si>
+    <t>knr</t>
+  </si>
+  <si>
+    <t>EGRESS_MODE_CODE</t>
+  </si>
+  <si>
+    <t>egress_mode</t>
   </si>
 </sst>
 </file>
@@ -987,11 +1011,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E561"/>
+  <dimension ref="A1:E579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A532" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A562" sqref="A562"/>
+      <pane ySplit="1" topLeftCell="A548" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A580" sqref="A580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10540,6 +10564,312 @@
         <v>4</v>
       </c>
     </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C562" s="1">
+        <v>1</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C563" s="1">
+        <v>2</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C564" s="1">
+        <v>3</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C565" s="1">
+        <v>4</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E565" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C566" s="1">
+        <v>5</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E566" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C567" s="1">
+        <v>6</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C568" s="1">
+        <v>7</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E568" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C569" s="1">
+        <v>8</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C570" s="1">
+        <v>9</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C571" s="1">
+        <v>1</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C572" s="1">
+        <v>2</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C573" s="1">
+        <v>3</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C574" s="1">
+        <v>4</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C575" s="1">
+        <v>5</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C576" s="1">
+        <v>6</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C577" s="1">
+        <v>7</v>
+      </c>
+      <c r="D577" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C578" s="1">
+        <v>8</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C579" s="1">
+        <v>9</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
